--- a/hardware/МЭИ.466219.002 Стенд учебный.xlsx
+++ b/hardware/МЭИ.466219.002 Стенд учебный.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandrsmirnov/Dropbox/Development/microprocessor-units-course/hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD356D9-95DD-3843-A112-41A06D267E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839157F3-0921-9546-B9D9-ABB6CE194605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="С (Л1)" sheetId="1" r:id="rId1"/>
@@ -371,9 +371,6 @@
     <t>RC0603FR-074K7L</t>
   </si>
   <si>
-    <t>R14,R15,R20</t>
-  </si>
-  <si>
     <t>RMCF0603JT22R0</t>
   </si>
   <si>
@@ -583,6 +580,9 @@
   </si>
   <si>
     <t>Э</t>
+  </si>
+  <si>
+    <t>R14,R15</t>
   </si>
 </sst>
 </file>
@@ -1409,6 +1409,190 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1424,15 +1608,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1487,13 +1662,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1508,216 +1677,51 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
@@ -1725,47 +1729,43 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2178,7 +2178,7 @@
   </sheetPr>
   <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A3" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="H30" sqref="H30:K30"/>
     </sheetView>
   </sheetViews>
@@ -3360,1036 +3360,1036 @@
       <c r="S1" s="8"/>
     </row>
     <row r="2" spans="1:19" ht="42.5" customHeight="1" thickBot="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="44"/>
+      <c r="B2" s="110"/>
       <c r="C2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="127" t="s">
+      <c r="D2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="128"/>
-      <c r="F2" s="127" t="s">
+      <c r="E2" s="43"/>
+      <c r="F2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="128"/>
-      <c r="H2" s="129" t="s">
+      <c r="G2" s="43"/>
+      <c r="H2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="129" t="s">
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="131"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="46"/>
       <c r="Q2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="132" t="s">
+      <c r="R2" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="133"/>
+      <c r="S2" s="48"/>
     </row>
     <row r="3" spans="1:19" ht="22.5" customHeight="1">
-      <c r="A3" s="48"/>
-      <c r="B3" s="45"/>
+      <c r="A3" s="80"/>
+      <c r="B3" s="111"/>
       <c r="C3" s="29"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="136"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="135"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="50"/>
       <c r="Q3" s="29"/>
-      <c r="R3" s="137"/>
-      <c r="S3" s="138"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="53"/>
     </row>
     <row r="4" spans="1:19" ht="23.25" customHeight="1">
-      <c r="A4" s="48"/>
-      <c r="B4" s="45"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="111"/>
       <c r="C4" s="15"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="124" t="s">
+      <c r="D4" s="54"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="125"/>
-      <c r="N4" s="125"/>
-      <c r="O4" s="125"/>
-      <c r="P4" s="126"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="59"/>
       <c r="Q4" s="15"/>
-      <c r="R4" s="83"/>
-      <c r="S4" s="84"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="61"/>
     </row>
     <row r="5" spans="1:19" ht="23.25" customHeight="1">
-      <c r="A5" s="48"/>
-      <c r="B5" s="45"/>
+      <c r="A5" s="80"/>
+      <c r="B5" s="111"/>
       <c r="C5" s="15"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="81"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="55"/>
       <c r="Q5" s="15"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="84"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="61"/>
     </row>
     <row r="6" spans="1:19" ht="23.25" customHeight="1">
-      <c r="A6" s="48"/>
-      <c r="B6" s="45"/>
+      <c r="A6" s="80"/>
+      <c r="B6" s="111"/>
       <c r="C6" s="15"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="80" t="s">
-        <v>171</v>
-      </c>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="80" t="s">
+      <c r="D6" s="54"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="81"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="55"/>
       <c r="Q6" s="15"/>
-      <c r="R6" s="83"/>
-      <c r="S6" s="84"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="61"/>
     </row>
     <row r="7" spans="1:19" ht="23.25" customHeight="1">
-      <c r="A7" s="48"/>
-      <c r="B7" s="45"/>
+      <c r="A7" s="80"/>
+      <c r="B7" s="111"/>
       <c r="C7" s="15"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="81"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="55"/>
       <c r="Q7" s="15"/>
-      <c r="R7" s="83"/>
-      <c r="S7" s="84"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="61"/>
     </row>
     <row r="8" spans="1:19" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A8" s="49"/>
-      <c r="B8" s="46"/>
+      <c r="A8" s="81"/>
+      <c r="B8" s="112"/>
       <c r="C8" s="15"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="124" t="s">
+      <c r="D8" s="54"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="M8" s="119"/>
-      <c r="N8" s="119"/>
-      <c r="O8" s="119"/>
-      <c r="P8" s="120"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="63"/>
       <c r="Q8" s="15"/>
-      <c r="R8" s="83"/>
-      <c r="S8" s="84"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="61"/>
     </row>
     <row r="9" spans="1:19" ht="23.25" customHeight="1">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="44"/>
+      <c r="B9" s="110"/>
       <c r="C9" s="15"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="80">
+      <c r="D9" s="54"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="54">
         <v>1</v>
       </c>
-      <c r="G9" s="81"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="80" t="s">
-        <v>163</v>
-      </c>
-      <c r="M9" s="82"/>
-      <c r="N9" s="82"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="81"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="55"/>
       <c r="Q9" s="15"/>
-      <c r="R9" s="83"/>
-      <c r="S9" s="84"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="61"/>
     </row>
     <row r="10" spans="1:19" ht="23.25" customHeight="1">
-      <c r="A10" s="48"/>
-      <c r="B10" s="45"/>
+      <c r="A10" s="80"/>
+      <c r="B10" s="111"/>
       <c r="C10" s="15"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="81"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="55"/>
       <c r="Q10" s="15"/>
-      <c r="R10" s="83"/>
-      <c r="S10" s="84"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="61"/>
     </row>
     <row r="11" spans="1:19" ht="23.25" customHeight="1">
-      <c r="A11" s="48"/>
-      <c r="B11" s="45"/>
+      <c r="A11" s="80"/>
+      <c r="B11" s="111"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="124" t="s">
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="M11" s="119"/>
-      <c r="N11" s="119"/>
-      <c r="O11" s="119"/>
-      <c r="P11" s="120"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="63"/>
       <c r="Q11" s="15"/>
-      <c r="R11" s="83"/>
-      <c r="S11" s="84"/>
+      <c r="R11" s="60"/>
+      <c r="S11" s="61"/>
     </row>
     <row r="12" spans="1:19" ht="23.25" customHeight="1">
-      <c r="A12" s="48"/>
-      <c r="B12" s="45"/>
+      <c r="A12" s="80"/>
+      <c r="B12" s="111"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="80"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="82"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="81"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="55"/>
       <c r="Q12" s="15"/>
-      <c r="R12" s="83"/>
-      <c r="S12" s="84"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="61"/>
     </row>
     <row r="13" spans="1:19" ht="23.25" customHeight="1">
-      <c r="A13" s="48"/>
-      <c r="B13" s="45"/>
+      <c r="A13" s="80"/>
+      <c r="B13" s="111"/>
       <c r="C13" s="15"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="118" t="s">
+      <c r="D13" s="54"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="M13" s="119"/>
-      <c r="N13" s="119"/>
-      <c r="O13" s="119"/>
-      <c r="P13" s="120"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="63"/>
       <c r="Q13" s="15"/>
-      <c r="R13" s="83"/>
-      <c r="S13" s="84"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="61"/>
     </row>
     <row r="14" spans="1:19" ht="23.25" customHeight="1">
-      <c r="A14" s="48"/>
-      <c r="B14" s="45"/>
+      <c r="A14" s="80"/>
+      <c r="B14" s="111"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="80">
+      <c r="D14" s="54"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="54">
         <v>2</v>
       </c>
-      <c r="G14" s="81"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="81"/>
-      <c r="L14" s="80" t="s">
+      <c r="G14" s="55"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="M14" s="82"/>
-      <c r="N14" s="82"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="81"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="55"/>
       <c r="Q14" s="15">
         <v>13</v>
       </c>
-      <c r="R14" s="83" t="s">
+      <c r="R14" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="S14" s="84"/>
+      <c r="S14" s="61"/>
     </row>
     <row r="15" spans="1:19" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A15" s="49"/>
-      <c r="B15" s="46"/>
+      <c r="A15" s="81"/>
+      <c r="B15" s="112"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="124"/>
-      <c r="M15" s="125"/>
-      <c r="N15" s="125"/>
-      <c r="O15" s="125"/>
-      <c r="P15" s="126"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="59"/>
       <c r="Q15" s="15"/>
-      <c r="R15" s="83" t="s">
+      <c r="R15" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="S15" s="84"/>
+      <c r="S15" s="61"/>
     </row>
     <row r="16" spans="1:19" ht="23.25" customHeight="1">
       <c r="A16" s="12"/>
       <c r="B16" s="8"/>
       <c r="C16" s="15"/>
-      <c r="D16" s="121"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="123"/>
-      <c r="K16" s="122"/>
-      <c r="L16" s="121"/>
-      <c r="M16" s="123"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="122"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="66"/>
       <c r="Q16" s="15"/>
-      <c r="R16" s="121" t="s">
+      <c r="R16" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="S16" s="122"/>
+      <c r="S16" s="66"/>
     </row>
     <row r="17" spans="1:21" ht="23.25" customHeight="1">
       <c r="A17" s="12"/>
       <c r="B17" s="8"/>
       <c r="C17" s="15"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="118"/>
-      <c r="M17" s="119"/>
-      <c r="N17" s="119"/>
-      <c r="O17" s="119"/>
-      <c r="P17" s="120"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="63"/>
       <c r="Q17" s="15"/>
-      <c r="R17" s="83" t="s">
+      <c r="R17" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="S17" s="84"/>
+      <c r="S17" s="61"/>
     </row>
     <row r="18" spans="1:21" ht="18.75" customHeight="1" thickBot="1">
       <c r="A18" s="12"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="80">
+      <c r="C18" s="72"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="54">
         <v>3</v>
       </c>
-      <c r="G18" s="81"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="113" t="s">
+      <c r="G18" s="55"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="M18" s="82"/>
-      <c r="N18" s="82"/>
-      <c r="O18" s="82"/>
-      <c r="P18" s="81"/>
-      <c r="Q18" s="105">
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="72">
         <v>10</v>
       </c>
-      <c r="R18" s="107" t="s">
+      <c r="R18" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="S18" s="108"/>
+      <c r="S18" s="76"/>
     </row>
     <row r="19" spans="1:21" ht="4.5" customHeight="1">
-      <c r="A19" s="114" t="s">
+      <c r="A19" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="116"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="82"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="81"/>
-      <c r="Q19" s="106"/>
-      <c r="R19" s="109"/>
-      <c r="S19" s="110"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="73"/>
+      <c r="R19" s="77"/>
+      <c r="S19" s="78"/>
     </row>
     <row r="20" spans="1:21" ht="23.25" customHeight="1">
-      <c r="A20" s="115"/>
-      <c r="B20" s="117"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="71"/>
       <c r="C20" s="15"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="82"/>
-      <c r="O20" s="82"/>
-      <c r="P20" s="81"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="55"/>
       <c r="Q20" s="15"/>
-      <c r="R20" s="83" t="s">
+      <c r="R20" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="S20" s="84"/>
+      <c r="S20" s="61"/>
     </row>
     <row r="21" spans="1:21" ht="23.25" customHeight="1">
-      <c r="A21" s="115"/>
-      <c r="B21" s="117"/>
+      <c r="A21" s="69"/>
+      <c r="B21" s="71"/>
       <c r="C21" s="15"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="81"/>
-      <c r="L21" s="118"/>
-      <c r="M21" s="119"/>
-      <c r="N21" s="119"/>
-      <c r="O21" s="119"/>
-      <c r="P21" s="120"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="63"/>
       <c r="Q21" s="15"/>
-      <c r="R21" s="83" t="s">
+      <c r="R21" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="S21" s="84"/>
+      <c r="S21" s="61"/>
     </row>
     <row r="22" spans="1:21" ht="23.25" customHeight="1">
-      <c r="A22" s="115"/>
-      <c r="B22" s="117"/>
+      <c r="A22" s="69"/>
+      <c r="B22" s="71"/>
       <c r="C22" s="15"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="80">
+      <c r="D22" s="54"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="54">
         <v>4</v>
       </c>
-      <c r="G22" s="81"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="81"/>
-      <c r="L22" s="113" t="s">
+      <c r="G22" s="55"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="M22" s="82"/>
-      <c r="N22" s="82"/>
-      <c r="O22" s="82"/>
-      <c r="P22" s="81"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="55"/>
       <c r="Q22" s="15">
         <v>4</v>
       </c>
-      <c r="R22" s="83" t="s">
+      <c r="R22" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="S22" s="84"/>
+      <c r="S22" s="61"/>
       <c r="U22" s="2"/>
     </row>
     <row r="23" spans="1:21" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A23" s="115"/>
-      <c r="B23" s="117"/>
+      <c r="A23" s="69"/>
+      <c r="B23" s="71"/>
       <c r="C23" s="15"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="80">
+      <c r="D23" s="54"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="54">
         <v>5</v>
       </c>
-      <c r="G23" s="81"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="81"/>
-      <c r="L23" s="113" t="s">
+      <c r="G23" s="55"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="M23" s="82"/>
-      <c r="N23" s="82"/>
-      <c r="O23" s="82"/>
-      <c r="P23" s="81"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="55"/>
       <c r="Q23" s="15">
         <v>3</v>
       </c>
-      <c r="R23" s="83" t="s">
+      <c r="R23" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="S23" s="84"/>
+      <c r="S23" s="61"/>
     </row>
     <row r="24" spans="1:21" ht="23.25" customHeight="1">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="102"/>
+      <c r="B24" s="82"/>
       <c r="C24" s="13"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="80">
+      <c r="D24" s="54"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="54">
         <v>6</v>
       </c>
-      <c r="G24" s="81"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="113" t="s">
+      <c r="G24" s="55"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="M24" s="82"/>
-      <c r="N24" s="82"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="81"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="55"/>
       <c r="Q24" s="13">
         <v>1</v>
       </c>
-      <c r="R24" s="109" t="s">
+      <c r="R24" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="S24" s="110"/>
+      <c r="S24" s="78"/>
     </row>
     <row r="25" spans="1:21" ht="23.25" customHeight="1">
-      <c r="A25" s="48"/>
-      <c r="B25" s="103"/>
+      <c r="A25" s="80"/>
+      <c r="B25" s="83"/>
       <c r="C25" s="15"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="80">
+      <c r="D25" s="54"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="54">
         <v>7</v>
       </c>
-      <c r="G25" s="81"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="81"/>
-      <c r="L25" s="113" t="s">
+      <c r="G25" s="55"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="M25" s="82"/>
-      <c r="N25" s="82"/>
-      <c r="O25" s="82"/>
-      <c r="P25" s="81"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="55"/>
       <c r="Q25" s="15">
         <v>1</v>
       </c>
-      <c r="R25" s="83" t="s">
+      <c r="R25" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="S25" s="84"/>
+      <c r="S25" s="61"/>
     </row>
     <row r="26" spans="1:21" ht="23.25" customHeight="1">
-      <c r="A26" s="48"/>
-      <c r="B26" s="103"/>
+      <c r="A26" s="80"/>
+      <c r="B26" s="83"/>
       <c r="C26" s="15"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="80">
+      <c r="D26" s="54"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="54">
         <v>8</v>
       </c>
-      <c r="G26" s="81"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="113" t="s">
+      <c r="G26" s="55"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="M26" s="82"/>
-      <c r="N26" s="82"/>
-      <c r="O26" s="82"/>
-      <c r="P26" s="81"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="55"/>
       <c r="Q26" s="15">
         <v>1</v>
       </c>
-      <c r="R26" s="83" t="s">
+      <c r="R26" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="S26" s="84"/>
+      <c r="S26" s="61"/>
     </row>
     <row r="27" spans="1:21" ht="4.5" customHeight="1" thickBot="1">
-      <c r="A27" s="49"/>
-      <c r="B27" s="104"/>
-      <c r="C27" s="105"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="80">
+      <c r="A27" s="81"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="54">
         <v>9</v>
       </c>
-      <c r="G27" s="81"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="81"/>
-      <c r="L27" s="113" t="s">
+      <c r="G27" s="55"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="M27" s="82"/>
-      <c r="N27" s="82"/>
-      <c r="O27" s="82"/>
-      <c r="P27" s="81"/>
-      <c r="Q27" s="105">
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="72">
         <v>2</v>
       </c>
-      <c r="R27" s="107" t="s">
+      <c r="R27" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="S27" s="108"/>
+      <c r="S27" s="76"/>
     </row>
     <row r="28" spans="1:21" ht="18.75" customHeight="1">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="102"/>
-      <c r="C28" s="106"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="80"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="82"/>
-      <c r="P28" s="81"/>
-      <c r="Q28" s="106"/>
-      <c r="R28" s="109"/>
-      <c r="S28" s="110"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="73"/>
+      <c r="R28" s="77"/>
+      <c r="S28" s="78"/>
     </row>
     <row r="29" spans="1:21" ht="23.25" customHeight="1">
-      <c r="A29" s="48"/>
-      <c r="B29" s="103"/>
+      <c r="A29" s="80"/>
+      <c r="B29" s="83"/>
       <c r="C29" s="15"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="80"/>
-      <c r="M29" s="82"/>
-      <c r="N29" s="82"/>
-      <c r="O29" s="82"/>
-      <c r="P29" s="81"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="55"/>
       <c r="Q29" s="15"/>
-      <c r="R29" s="83"/>
-      <c r="S29" s="84"/>
+      <c r="R29" s="60"/>
+      <c r="S29" s="61"/>
     </row>
     <row r="30" spans="1:21" ht="23.25" customHeight="1">
-      <c r="A30" s="48"/>
-      <c r="B30" s="103"/>
+      <c r="A30" s="80"/>
+      <c r="B30" s="83"/>
       <c r="C30" s="15"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="80">
+      <c r="D30" s="54"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="54">
         <v>10</v>
       </c>
-      <c r="G30" s="81"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="81"/>
-      <c r="L30" s="80" t="s">
+      <c r="G30" s="55"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="M30" s="82"/>
-      <c r="N30" s="82"/>
-      <c r="O30" s="82"/>
-      <c r="P30" s="81"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="55"/>
       <c r="Q30" s="15">
         <v>16</v>
       </c>
-      <c r="R30" s="83" t="s">
+      <c r="R30" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="S30" s="84"/>
+      <c r="S30" s="61"/>
     </row>
     <row r="31" spans="1:21" ht="9.75" customHeight="1" thickBot="1">
-      <c r="A31" s="49"/>
-      <c r="B31" s="104"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="82"/>
-      <c r="K31" s="81"/>
-      <c r="L31" s="80"/>
-      <c r="M31" s="82"/>
-      <c r="N31" s="82"/>
-      <c r="O31" s="82"/>
-      <c r="P31" s="81"/>
-      <c r="Q31" s="105"/>
-      <c r="R31" s="107"/>
-      <c r="S31" s="108"/>
+      <c r="A31" s="81"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="55"/>
+      <c r="Q31" s="72"/>
+      <c r="R31" s="75"/>
+      <c r="S31" s="76"/>
     </row>
     <row r="32" spans="1:21" ht="13.5" customHeight="1">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="102"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="81"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="82"/>
-      <c r="J32" s="82"/>
-      <c r="K32" s="81"/>
-      <c r="L32" s="80"/>
-      <c r="M32" s="82"/>
-      <c r="N32" s="82"/>
-      <c r="O32" s="82"/>
-      <c r="P32" s="81"/>
-      <c r="Q32" s="106"/>
-      <c r="R32" s="109"/>
-      <c r="S32" s="110"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="55"/>
+      <c r="Q32" s="73"/>
+      <c r="R32" s="77"/>
+      <c r="S32" s="78"/>
     </row>
     <row r="33" spans="1:19" ht="23.25" customHeight="1">
-      <c r="A33" s="48"/>
-      <c r="B33" s="103"/>
+      <c r="A33" s="80"/>
+      <c r="B33" s="83"/>
       <c r="C33" s="15"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="82"/>
-      <c r="J33" s="82"/>
-      <c r="K33" s="81"/>
-      <c r="L33" s="80"/>
-      <c r="M33" s="82"/>
-      <c r="N33" s="82"/>
-      <c r="O33" s="82"/>
-      <c r="P33" s="81"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="55"/>
       <c r="Q33" s="15"/>
-      <c r="R33" s="83"/>
-      <c r="S33" s="84"/>
+      <c r="R33" s="60"/>
+      <c r="S33" s="61"/>
     </row>
     <row r="34" spans="1:19" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A34" s="48"/>
-      <c r="B34" s="103"/>
+      <c r="A34" s="80"/>
+      <c r="B34" s="83"/>
       <c r="C34" s="20"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="90"/>
-      <c r="K34" s="86"/>
-      <c r="L34" s="85"/>
-      <c r="M34" s="90"/>
-      <c r="N34" s="90"/>
-      <c r="O34" s="90"/>
-      <c r="P34" s="86"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="92"/>
+      <c r="J34" s="92"/>
+      <c r="K34" s="88"/>
+      <c r="L34" s="87"/>
+      <c r="M34" s="92"/>
+      <c r="N34" s="92"/>
+      <c r="O34" s="92"/>
+      <c r="P34" s="88"/>
       <c r="Q34" s="20"/>
-      <c r="R34" s="91"/>
-      <c r="S34" s="92"/>
+      <c r="R34" s="93"/>
+      <c r="S34" s="94"/>
     </row>
     <row r="35" spans="1:19" ht="15" customHeight="1">
-      <c r="A35" s="48"/>
-      <c r="B35" s="111"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="79"/>
+      <c r="A35" s="80"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="95"/>
+      <c r="F35" s="96"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="96"/>
       <c r="I35" s="30"/>
       <c r="J35" s="30"/>
-      <c r="K35" s="93" t="s">
-        <v>167</v>
-      </c>
-      <c r="L35" s="94"/>
-      <c r="M35" s="94"/>
-      <c r="N35" s="94"/>
-      <c r="O35" s="94"/>
-      <c r="P35" s="94"/>
-      <c r="Q35" s="94"/>
-      <c r="R35" s="94"/>
-      <c r="S35" s="95"/>
+      <c r="K35" s="97" t="s">
+        <v>166</v>
+      </c>
+      <c r="L35" s="98"/>
+      <c r="M35" s="98"/>
+      <c r="N35" s="98"/>
+      <c r="O35" s="98"/>
+      <c r="P35" s="98"/>
+      <c r="Q35" s="98"/>
+      <c r="R35" s="98"/>
+      <c r="S35" s="99"/>
     </row>
     <row r="36" spans="1:19" ht="15" customHeight="1" thickBot="1">
-      <c r="A36" s="48"/>
-      <c r="B36" s="111"/>
-      <c r="C36" s="87"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="87"/>
-      <c r="H36" s="89"/>
+      <c r="A36" s="80"/>
+      <c r="B36" s="85"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="91"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="91"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="91"/>
       <c r="I36" s="31"/>
       <c r="J36" s="31"/>
-      <c r="K36" s="96"/>
-      <c r="L36" s="97"/>
-      <c r="M36" s="97"/>
-      <c r="N36" s="97"/>
-      <c r="O36" s="97"/>
-      <c r="P36" s="97"/>
-      <c r="Q36" s="97"/>
-      <c r="R36" s="97"/>
-      <c r="S36" s="98"/>
+      <c r="K36" s="100"/>
+      <c r="L36" s="101"/>
+      <c r="M36" s="101"/>
+      <c r="N36" s="101"/>
+      <c r="O36" s="101"/>
+      <c r="P36" s="101"/>
+      <c r="Q36" s="101"/>
+      <c r="R36" s="101"/>
+      <c r="S36" s="102"/>
     </row>
     <row r="37" spans="1:19" ht="15" customHeight="1" thickBot="1">
-      <c r="A37" s="49"/>
-      <c r="B37" s="112"/>
+      <c r="A37" s="81"/>
+      <c r="B37" s="86"/>
       <c r="C37" s="32" t="s">
         <v>10</v>
       </c>
       <c r="D37" s="33"/>
-      <c r="E37" s="54" t="s">
+      <c r="E37" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="56"/>
-      <c r="G37" s="54" t="s">
+      <c r="F37" s="119"/>
+      <c r="G37" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="H37" s="56"/>
+      <c r="H37" s="119"/>
       <c r="I37" s="22" t="s">
         <v>13</v>
       </c>
       <c r="J37" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="K37" s="99"/>
-      <c r="L37" s="100"/>
-      <c r="M37" s="100"/>
-      <c r="N37" s="100"/>
-      <c r="O37" s="100"/>
-      <c r="P37" s="100"/>
-      <c r="Q37" s="100"/>
-      <c r="R37" s="100"/>
-      <c r="S37" s="101"/>
+      <c r="K37" s="103"/>
+      <c r="L37" s="104"/>
+      <c r="M37" s="104"/>
+      <c r="N37" s="104"/>
+      <c r="O37" s="104"/>
+      <c r="P37" s="104"/>
+      <c r="Q37" s="104"/>
+      <c r="R37" s="104"/>
+      <c r="S37" s="105"/>
     </row>
     <row r="38" spans="1:19" ht="15" customHeight="1" thickBot="1">
-      <c r="A38" s="71" t="s">
+      <c r="A38" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="74"/>
-      <c r="C38" s="77" t="s">
+      <c r="B38" s="135"/>
+      <c r="C38" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="78"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="77" t="s">
-        <v>170</v>
-      </c>
-      <c r="H38" s="79"/>
+      <c r="D38" s="138"/>
+      <c r="E38" s="138"/>
+      <c r="F38" s="96"/>
+      <c r="G38" s="95" t="s">
+        <v>169</v>
+      </c>
+      <c r="H38" s="96"/>
       <c r="I38" s="30"/>
       <c r="J38" s="30"/>
-      <c r="K38" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="L38" s="51"/>
-      <c r="M38" s="54" t="s">
+      <c r="K38" s="113" t="s">
+        <v>177</v>
+      </c>
+      <c r="L38" s="114"/>
+      <c r="M38" s="117" t="s">
         <v>17</v>
       </c>
-      <c r="N38" s="55"/>
-      <c r="O38" s="56"/>
-      <c r="P38" s="57" t="s">
+      <c r="N38" s="118"/>
+      <c r="O38" s="119"/>
+      <c r="P38" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="Q38" s="58"/>
-      <c r="R38" s="59"/>
+      <c r="Q38" s="121"/>
+      <c r="R38" s="122"/>
       <c r="S38" s="34" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A39" s="72"/>
-      <c r="B39" s="75"/>
-      <c r="C39" s="60" t="s">
+      <c r="A39" s="133"/>
+      <c r="B39" s="136"/>
+      <c r="C39" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="60" t="s">
-        <v>169</v>
-      </c>
-      <c r="H39" s="62"/>
+      <c r="D39" s="124"/>
+      <c r="E39" s="124"/>
+      <c r="F39" s="125"/>
+      <c r="G39" s="123" t="s">
+        <v>168</v>
+      </c>
+      <c r="H39" s="125"/>
       <c r="I39" s="35"/>
       <c r="J39" s="35"/>
-      <c r="K39" s="52"/>
-      <c r="L39" s="53"/>
+      <c r="K39" s="115"/>
+      <c r="L39" s="116"/>
       <c r="M39" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N39" s="37"/>
       <c r="O39" s="38"/>
-      <c r="P39" s="57">
+      <c r="P39" s="120">
         <v>1</v>
       </c>
-      <c r="Q39" s="58"/>
-      <c r="R39" s="59"/>
+      <c r="Q39" s="121"/>
+      <c r="R39" s="122"/>
       <c r="S39" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="15" customHeight="1">
-      <c r="A40" s="72"/>
-      <c r="B40" s="75"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="61"/>
-      <c r="E40" s="61"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="62"/>
+      <c r="A40" s="133"/>
+      <c r="B40" s="136"/>
+      <c r="C40" s="123"/>
+      <c r="D40" s="124"/>
+      <c r="E40" s="124"/>
+      <c r="F40" s="125"/>
+      <c r="G40" s="123"/>
+      <c r="H40" s="125"/>
       <c r="I40" s="35"/>
       <c r="J40" s="35"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="63" t="s">
-        <v>168</v>
-      </c>
-      <c r="N40" s="42"/>
-      <c r="O40" s="42"/>
-      <c r="P40" s="42"/>
-      <c r="Q40" s="42"/>
-      <c r="R40" s="42"/>
-      <c r="S40" s="64"/>
+      <c r="K40" s="115"/>
+      <c r="L40" s="116"/>
+      <c r="M40" s="126" t="s">
+        <v>167</v>
+      </c>
+      <c r="N40" s="108"/>
+      <c r="O40" s="108"/>
+      <c r="P40" s="108"/>
+      <c r="Q40" s="108"/>
+      <c r="R40" s="108"/>
+      <c r="S40" s="127"/>
     </row>
     <row r="41" spans="1:19" ht="15" customHeight="1">
-      <c r="A41" s="72"/>
-      <c r="B41" s="75"/>
-      <c r="C41" s="60" t="s">
+      <c r="A41" s="133"/>
+      <c r="B41" s="136"/>
+      <c r="C41" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="62"/>
+      <c r="D41" s="124"/>
+      <c r="E41" s="124"/>
+      <c r="F41" s="125"/>
+      <c r="G41" s="123"/>
+      <c r="H41" s="125"/>
       <c r="I41" s="35"/>
       <c r="J41" s="35"/>
-      <c r="K41" s="52"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="65"/>
-      <c r="N41" s="66"/>
-      <c r="O41" s="66"/>
-      <c r="P41" s="66"/>
-      <c r="Q41" s="66"/>
-      <c r="R41" s="66"/>
-      <c r="S41" s="67"/>
+      <c r="K41" s="115"/>
+      <c r="L41" s="116"/>
+      <c r="M41" s="128"/>
+      <c r="N41" s="129"/>
+      <c r="O41" s="129"/>
+      <c r="P41" s="129"/>
+      <c r="Q41" s="129"/>
+      <c r="R41" s="129"/>
+      <c r="S41" s="130"/>
     </row>
     <row r="42" spans="1:19" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A42" s="73"/>
-      <c r="B42" s="76"/>
-      <c r="C42" s="87" t="s">
+      <c r="A42" s="134"/>
+      <c r="B42" s="137"/>
+      <c r="C42" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="88"/>
-      <c r="E42" s="88"/>
-      <c r="F42" s="89"/>
-      <c r="G42" s="87" t="s">
-        <v>169</v>
-      </c>
-      <c r="H42" s="89"/>
+      <c r="D42" s="90"/>
+      <c r="E42" s="90"/>
+      <c r="F42" s="91"/>
+      <c r="G42" s="89" t="s">
+        <v>168</v>
+      </c>
+      <c r="H42" s="91"/>
       <c r="I42" s="31"/>
       <c r="J42" s="31"/>
-      <c r="K42" s="68" t="s">
+      <c r="K42" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="L42" s="70"/>
-      <c r="M42" s="68"/>
-      <c r="N42" s="69"/>
-      <c r="O42" s="69"/>
-      <c r="P42" s="69"/>
-      <c r="Q42" s="69"/>
-      <c r="R42" s="69"/>
-      <c r="S42" s="70"/>
+      <c r="L42" s="107"/>
+      <c r="M42" s="106"/>
+      <c r="N42" s="131"/>
+      <c r="O42" s="131"/>
+      <c r="P42" s="131"/>
+      <c r="Q42" s="131"/>
+      <c r="R42" s="131"/>
+      <c r="S42" s="107"/>
     </row>
     <row r="43" spans="1:19" s="3" customFormat="1" ht="14" customHeight="1">
       <c r="A43" s="39"/>
@@ -4402,104 +4402,117 @@
       <c r="H43" s="39"/>
       <c r="I43" s="39"/>
       <c r="J43" s="39"/>
-      <c r="K43" s="42" t="s">
+      <c r="K43" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="L43" s="42"/>
-      <c r="M43" s="43" t="s">
+      <c r="L43" s="108"/>
+      <c r="M43" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="N43" s="43"/>
-      <c r="O43" s="43"/>
-      <c r="P43" s="43"/>
-      <c r="Q43" s="43"/>
-      <c r="R43" s="43"/>
-      <c r="S43" s="43"/>
+      <c r="N43" s="109"/>
+      <c r="O43" s="109"/>
+      <c r="P43" s="109"/>
+      <c r="Q43" s="109"/>
+      <c r="R43" s="109"/>
+      <c r="S43" s="109"/>
     </row>
     <row r="44" spans="1:19" ht="15" hidden="1" customHeight="1"/>
     <row r="45" spans="1:19" ht="27.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="197">
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="L5:P5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="L6:P6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:P7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="L8:P8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:S43"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="K38:L41"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="M40:S42"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:P33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:P34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="K35:S37"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:E32"/>
+    <mergeCell ref="F31:G32"/>
+    <mergeCell ref="H31:K32"/>
+    <mergeCell ref="L31:P32"/>
+    <mergeCell ref="Q31:Q32"/>
+    <mergeCell ref="R31:S32"/>
+    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:P26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:E28"/>
+    <mergeCell ref="F27:G28"/>
+    <mergeCell ref="H27:K28"/>
+    <mergeCell ref="L27:P28"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="R27:S28"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:P25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:K24"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="B19:B23"/>
     <mergeCell ref="D20:E20"/>
@@ -4524,99 +4537,86 @@
     <mergeCell ref="L22:P22"/>
     <mergeCell ref="R22:S22"/>
     <mergeCell ref="R18:S19"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:K25"/>
-    <mergeCell ref="L25:P25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="L26:P26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:E28"/>
-    <mergeCell ref="F27:G28"/>
-    <mergeCell ref="H27:K28"/>
-    <mergeCell ref="L27:P28"/>
-    <mergeCell ref="Q27:Q28"/>
-    <mergeCell ref="R27:S28"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:E32"/>
-    <mergeCell ref="F31:G32"/>
-    <mergeCell ref="H31:K32"/>
-    <mergeCell ref="L31:P32"/>
-    <mergeCell ref="Q31:Q32"/>
-    <mergeCell ref="R31:S32"/>
-    <mergeCell ref="A32:A37"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="H33:K33"/>
-    <mergeCell ref="L33:P33"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="L34:P34"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="K35:S37"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:S43"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="K38:L41"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="M40:S42"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:P8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="L6:P6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="L5:P5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="R3:S3"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="WVO983078 JC38 SY38 ACU38 AMQ38 AWM38 BGI38 BQE38 CAA38 CJW38 CTS38 DDO38 DNK38 DXG38 EHC38 EQY38 FAU38 FKQ38 FUM38 GEI38 GOE38 GYA38 HHW38 HRS38 IBO38 ILK38 IVG38 JFC38 JOY38 JYU38 KIQ38 KSM38 LCI38 LME38 LWA38 MFW38 MPS38 MZO38 NJK38 NTG38 ODC38 OMY38 OWU38 PGQ38 PQM38 QAI38 QKE38 QUA38 RDW38 RNS38 RXO38 SHK38 SRG38 TBC38 TKY38 TUU38 UEQ38 UOM38 UYI38 VIE38 VSA38 WBW38 WLS38 WVO38 G65574 JC65574 SY65574 ACU65574 AMQ65574 AWM65574 BGI65574 BQE65574 CAA65574 CJW65574 CTS65574 DDO65574 DNK65574 DXG65574 EHC65574 EQY65574 FAU65574 FKQ65574 FUM65574 GEI65574 GOE65574 GYA65574 HHW65574 HRS65574 IBO65574 ILK65574 IVG65574 JFC65574 JOY65574 JYU65574 KIQ65574 KSM65574 LCI65574 LME65574 LWA65574 MFW65574 MPS65574 MZO65574 NJK65574 NTG65574 ODC65574 OMY65574 OWU65574 PGQ65574 PQM65574 QAI65574 QKE65574 QUA65574 RDW65574 RNS65574 RXO65574 SHK65574 SRG65574 TBC65574 TKY65574 TUU65574 UEQ65574 UOM65574 UYI65574 VIE65574 VSA65574 WBW65574 WLS65574 WVO65574 G131110 JC131110 SY131110 ACU131110 AMQ131110 AWM131110 BGI131110 BQE131110 CAA131110 CJW131110 CTS131110 DDO131110 DNK131110 DXG131110 EHC131110 EQY131110 FAU131110 FKQ131110 FUM131110 GEI131110 GOE131110 GYA131110 HHW131110 HRS131110 IBO131110 ILK131110 IVG131110 JFC131110 JOY131110 JYU131110 KIQ131110 KSM131110 LCI131110 LME131110 LWA131110 MFW131110 MPS131110 MZO131110 NJK131110 NTG131110 ODC131110 OMY131110 OWU131110 PGQ131110 PQM131110 QAI131110 QKE131110 QUA131110 RDW131110 RNS131110 RXO131110 SHK131110 SRG131110 TBC131110 TKY131110 TUU131110 UEQ131110 UOM131110 UYI131110 VIE131110 VSA131110 WBW131110 WLS131110 WVO131110 G196646 JC196646 SY196646 ACU196646 AMQ196646 AWM196646 BGI196646 BQE196646 CAA196646 CJW196646 CTS196646 DDO196646 DNK196646 DXG196646 EHC196646 EQY196646 FAU196646 FKQ196646 FUM196646 GEI196646 GOE196646 GYA196646 HHW196646 HRS196646 IBO196646 ILK196646 IVG196646 JFC196646 JOY196646 JYU196646 KIQ196646 KSM196646 LCI196646 LME196646 LWA196646 MFW196646 MPS196646 MZO196646 NJK196646 NTG196646 ODC196646 OMY196646 OWU196646 PGQ196646 PQM196646 QAI196646 QKE196646 QUA196646 RDW196646 RNS196646 RXO196646 SHK196646 SRG196646 TBC196646 TKY196646 TUU196646 UEQ196646 UOM196646 UYI196646 VIE196646 VSA196646 WBW196646 WLS196646 WVO196646 G262182 JC262182 SY262182 ACU262182 AMQ262182 AWM262182 BGI262182 BQE262182 CAA262182 CJW262182 CTS262182 DDO262182 DNK262182 DXG262182 EHC262182 EQY262182 FAU262182 FKQ262182 FUM262182 GEI262182 GOE262182 GYA262182 HHW262182 HRS262182 IBO262182 ILK262182 IVG262182 JFC262182 JOY262182 JYU262182 KIQ262182 KSM262182 LCI262182 LME262182 LWA262182 MFW262182 MPS262182 MZO262182 NJK262182 NTG262182 ODC262182 OMY262182 OWU262182 PGQ262182 PQM262182 QAI262182 QKE262182 QUA262182 RDW262182 RNS262182 RXO262182 SHK262182 SRG262182 TBC262182 TKY262182 TUU262182 UEQ262182 UOM262182 UYI262182 VIE262182 VSA262182 WBW262182 WLS262182 WVO262182 G327718 JC327718 SY327718 ACU327718 AMQ327718 AWM327718 BGI327718 BQE327718 CAA327718 CJW327718 CTS327718 DDO327718 DNK327718 DXG327718 EHC327718 EQY327718 FAU327718 FKQ327718 FUM327718 GEI327718 GOE327718 GYA327718 HHW327718 HRS327718 IBO327718 ILK327718 IVG327718 JFC327718 JOY327718 JYU327718 KIQ327718 KSM327718 LCI327718 LME327718 LWA327718 MFW327718 MPS327718 MZO327718 NJK327718 NTG327718 ODC327718 OMY327718 OWU327718 PGQ327718 PQM327718 QAI327718 QKE327718 QUA327718 RDW327718 RNS327718 RXO327718 SHK327718 SRG327718 TBC327718 TKY327718 TUU327718 UEQ327718 UOM327718 UYI327718 VIE327718 VSA327718 WBW327718 WLS327718 WVO327718 G393254 JC393254 SY393254 ACU393254 AMQ393254 AWM393254 BGI393254 BQE393254 CAA393254 CJW393254 CTS393254 DDO393254 DNK393254 DXG393254 EHC393254 EQY393254 FAU393254 FKQ393254 FUM393254 GEI393254 GOE393254 GYA393254 HHW393254 HRS393254 IBO393254 ILK393254 IVG393254 JFC393254 JOY393254 JYU393254 KIQ393254 KSM393254 LCI393254 LME393254 LWA393254 MFW393254 MPS393254 MZO393254 NJK393254 NTG393254 ODC393254 OMY393254 OWU393254 PGQ393254 PQM393254 QAI393254 QKE393254 QUA393254 RDW393254 RNS393254 RXO393254 SHK393254 SRG393254 TBC393254 TKY393254 TUU393254 UEQ393254 UOM393254 UYI393254 VIE393254 VSA393254 WBW393254 WLS393254 WVO393254 G458790 JC458790 SY458790 ACU458790 AMQ458790 AWM458790 BGI458790 BQE458790 CAA458790 CJW458790 CTS458790 DDO458790 DNK458790 DXG458790 EHC458790 EQY458790 FAU458790 FKQ458790 FUM458790 GEI458790 GOE458790 GYA458790 HHW458790 HRS458790 IBO458790 ILK458790 IVG458790 JFC458790 JOY458790 JYU458790 KIQ458790 KSM458790 LCI458790 LME458790 LWA458790 MFW458790 MPS458790 MZO458790 NJK458790 NTG458790 ODC458790 OMY458790 OWU458790 PGQ458790 PQM458790 QAI458790 QKE458790 QUA458790 RDW458790 RNS458790 RXO458790 SHK458790 SRG458790 TBC458790 TKY458790 TUU458790 UEQ458790 UOM458790 UYI458790 VIE458790 VSA458790 WBW458790 WLS458790 WVO458790 G524326 JC524326 SY524326 ACU524326 AMQ524326 AWM524326 BGI524326 BQE524326 CAA524326 CJW524326 CTS524326 DDO524326 DNK524326 DXG524326 EHC524326 EQY524326 FAU524326 FKQ524326 FUM524326 GEI524326 GOE524326 GYA524326 HHW524326 HRS524326 IBO524326 ILK524326 IVG524326 JFC524326 JOY524326 JYU524326 KIQ524326 KSM524326 LCI524326 LME524326 LWA524326 MFW524326 MPS524326 MZO524326 NJK524326 NTG524326 ODC524326 OMY524326 OWU524326 PGQ524326 PQM524326 QAI524326 QKE524326 QUA524326 RDW524326 RNS524326 RXO524326 SHK524326 SRG524326 TBC524326 TKY524326 TUU524326 UEQ524326 UOM524326 UYI524326 VIE524326 VSA524326 WBW524326 WLS524326 WVO524326 G589862 JC589862 SY589862 ACU589862 AMQ589862 AWM589862 BGI589862 BQE589862 CAA589862 CJW589862 CTS589862 DDO589862 DNK589862 DXG589862 EHC589862 EQY589862 FAU589862 FKQ589862 FUM589862 GEI589862 GOE589862 GYA589862 HHW589862 HRS589862 IBO589862 ILK589862 IVG589862 JFC589862 JOY589862 JYU589862 KIQ589862 KSM589862 LCI589862 LME589862 LWA589862 MFW589862 MPS589862 MZO589862 NJK589862 NTG589862 ODC589862 OMY589862 OWU589862 PGQ589862 PQM589862 QAI589862 QKE589862 QUA589862 RDW589862 RNS589862 RXO589862 SHK589862 SRG589862 TBC589862 TKY589862 TUU589862 UEQ589862 UOM589862 UYI589862 VIE589862 VSA589862 WBW589862 WLS589862 WVO589862 G655398 JC655398 SY655398 ACU655398 AMQ655398 AWM655398 BGI655398 BQE655398 CAA655398 CJW655398 CTS655398 DDO655398 DNK655398 DXG655398 EHC655398 EQY655398 FAU655398 FKQ655398 FUM655398 GEI655398 GOE655398 GYA655398 HHW655398 HRS655398 IBO655398 ILK655398 IVG655398 JFC655398 JOY655398 JYU655398 KIQ655398 KSM655398 LCI655398 LME655398 LWA655398 MFW655398 MPS655398 MZO655398 NJK655398 NTG655398 ODC655398 OMY655398 OWU655398 PGQ655398 PQM655398 QAI655398 QKE655398 QUA655398 RDW655398 RNS655398 RXO655398 SHK655398 SRG655398 TBC655398 TKY655398 TUU655398 UEQ655398 UOM655398 UYI655398 VIE655398 VSA655398 WBW655398 WLS655398 WVO655398 G720934 JC720934 SY720934 ACU720934 AMQ720934 AWM720934 BGI720934 BQE720934 CAA720934 CJW720934 CTS720934 DDO720934 DNK720934 DXG720934 EHC720934 EQY720934 FAU720934 FKQ720934 FUM720934 GEI720934 GOE720934 GYA720934 HHW720934 HRS720934 IBO720934 ILK720934 IVG720934 JFC720934 JOY720934 JYU720934 KIQ720934 KSM720934 LCI720934 LME720934 LWA720934 MFW720934 MPS720934 MZO720934 NJK720934 NTG720934 ODC720934 OMY720934 OWU720934 PGQ720934 PQM720934 QAI720934 QKE720934 QUA720934 RDW720934 RNS720934 RXO720934 SHK720934 SRG720934 TBC720934 TKY720934 TUU720934 UEQ720934 UOM720934 UYI720934 VIE720934 VSA720934 WBW720934 WLS720934 WVO720934 G786470 JC786470 SY786470 ACU786470 AMQ786470 AWM786470 BGI786470 BQE786470 CAA786470 CJW786470 CTS786470 DDO786470 DNK786470 DXG786470 EHC786470 EQY786470 FAU786470 FKQ786470 FUM786470 GEI786470 GOE786470 GYA786470 HHW786470 HRS786470 IBO786470 ILK786470 IVG786470 JFC786470 JOY786470 JYU786470 KIQ786470 KSM786470 LCI786470 LME786470 LWA786470 MFW786470 MPS786470 MZO786470 NJK786470 NTG786470 ODC786470 OMY786470 OWU786470 PGQ786470 PQM786470 QAI786470 QKE786470 QUA786470 RDW786470 RNS786470 RXO786470 SHK786470 SRG786470 TBC786470 TKY786470 TUU786470 UEQ786470 UOM786470 UYI786470 VIE786470 VSA786470 WBW786470 WLS786470 WVO786470 G852006 JC852006 SY852006 ACU852006 AMQ852006 AWM852006 BGI852006 BQE852006 CAA852006 CJW852006 CTS852006 DDO852006 DNK852006 DXG852006 EHC852006 EQY852006 FAU852006 FKQ852006 FUM852006 GEI852006 GOE852006 GYA852006 HHW852006 HRS852006 IBO852006 ILK852006 IVG852006 JFC852006 JOY852006 JYU852006 KIQ852006 KSM852006 LCI852006 LME852006 LWA852006 MFW852006 MPS852006 MZO852006 NJK852006 NTG852006 ODC852006 OMY852006 OWU852006 PGQ852006 PQM852006 QAI852006 QKE852006 QUA852006 RDW852006 RNS852006 RXO852006 SHK852006 SRG852006 TBC852006 TKY852006 TUU852006 UEQ852006 UOM852006 UYI852006 VIE852006 VSA852006 WBW852006 WLS852006 WVO852006 G917542 JC917542 SY917542 ACU917542 AMQ917542 AWM917542 BGI917542 BQE917542 CAA917542 CJW917542 CTS917542 DDO917542 DNK917542 DXG917542 EHC917542 EQY917542 FAU917542 FKQ917542 FUM917542 GEI917542 GOE917542 GYA917542 HHW917542 HRS917542 IBO917542 ILK917542 IVG917542 JFC917542 JOY917542 JYU917542 KIQ917542 KSM917542 LCI917542 LME917542 LWA917542 MFW917542 MPS917542 MZO917542 NJK917542 NTG917542 ODC917542 OMY917542 OWU917542 PGQ917542 PQM917542 QAI917542 QKE917542 QUA917542 RDW917542 RNS917542 RXO917542 SHK917542 SRG917542 TBC917542 TKY917542 TUU917542 UEQ917542 UOM917542 UYI917542 VIE917542 VSA917542 WBW917542 WLS917542 WVO917542 G983078 JC983078 SY983078 ACU983078 AMQ983078 AWM983078 BGI983078 BQE983078 CAA983078 CJW983078 CTS983078 DDO983078 DNK983078 DXG983078 EHC983078 EQY983078 FAU983078 FKQ983078 FUM983078 GEI983078 GOE983078 GYA983078 HHW983078 HRS983078 IBO983078 ILK983078 IVG983078 JFC983078 JOY983078 JYU983078 KIQ983078 KSM983078 LCI983078 LME983078 LWA983078 MFW983078 MPS983078 MZO983078 NJK983078 NTG983078 ODC983078 OMY983078 OWU983078 PGQ983078 PQM983078 QAI983078 QKE983078 QUA983078 RDW983078 RNS983078 RXO983078 SHK983078 SRG983078 TBC983078 TKY983078 TUU983078 UEQ983078 UOM983078 UYI983078 VIE983078 VSA983078 WBW983078 WLS983078" xr:uid="{00000000-0002-0000-0000-000000000000}">
@@ -4644,8 +4644,8 @@
   <sheetPr codeName="Лист10"/>
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView view="pageBreakPreview" topLeftCell="C16" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32:O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -5763,925 +5763,925 @@
       <c r="C2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="161" t="s">
+      <c r="D2" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="162"/>
-      <c r="F2" s="161" t="s">
+      <c r="E2" s="140"/>
+      <c r="F2" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="162"/>
-      <c r="H2" s="150" t="s">
+      <c r="G2" s="140"/>
+      <c r="H2" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="151"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="143"/>
       <c r="L2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="M2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="132" t="s">
+      <c r="N2" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="133"/>
+      <c r="O2" s="48"/>
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:16" ht="22.5" customHeight="1">
       <c r="A3" s="12"/>
       <c r="B3" s="8"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="164"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="165"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="145"/>
       <c r="L3" s="27"/>
       <c r="M3" s="13"/>
-      <c r="N3" s="164"/>
-      <c r="O3" s="165"/>
+      <c r="N3" s="144"/>
+      <c r="O3" s="145"/>
     </row>
     <row r="4" spans="1:16" ht="22.5" customHeight="1">
       <c r="A4" s="12"/>
       <c r="B4" s="8"/>
       <c r="C4" s="15"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="81"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="55"/>
       <c r="L4" s="19" t="s">
         <v>59</v>
       </c>
       <c r="M4" s="15"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="81"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="55"/>
     </row>
     <row r="5" spans="1:16" ht="22.5" customHeight="1">
       <c r="A5" s="12"/>
       <c r="B5" s="8"/>
       <c r="C5" s="15"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="80">
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="54">
         <v>11</v>
       </c>
-      <c r="G5" s="81"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="81"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="55"/>
       <c r="L5" s="16" t="s">
         <v>60</v>
       </c>
       <c r="M5" s="15">
         <v>1</v>
       </c>
-      <c r="N5" s="80" t="s">
+      <c r="N5" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="O5" s="81"/>
+      <c r="O5" s="55"/>
     </row>
     <row r="6" spans="1:16" ht="22.5" customHeight="1">
       <c r="A6" s="12"/>
       <c r="B6" s="8"/>
       <c r="C6" s="15"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="80">
+      <c r="D6" s="54"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="54">
         <v>12</v>
       </c>
-      <c r="G6" s="81"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="81"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="55"/>
       <c r="L6" s="16" t="s">
         <v>62</v>
       </c>
       <c r="M6" s="15">
         <v>1</v>
       </c>
-      <c r="N6" s="80" t="s">
+      <c r="N6" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="O6" s="81"/>
+      <c r="O6" s="55"/>
     </row>
     <row r="7" spans="1:16" ht="22.5" customHeight="1">
       <c r="A7" s="12"/>
       <c r="B7" s="8"/>
       <c r="C7" s="15"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="80">
+      <c r="D7" s="54"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="54">
         <v>13</v>
       </c>
-      <c r="G7" s="81"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="81"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="55"/>
       <c r="L7" s="16" t="s">
         <v>64</v>
       </c>
       <c r="M7" s="15">
         <v>1</v>
       </c>
-      <c r="N7" s="80" t="s">
+      <c r="N7" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="O7" s="81"/>
+      <c r="O7" s="55"/>
     </row>
     <row r="8" spans="1:16" ht="22.5" customHeight="1">
       <c r="A8" s="12"/>
       <c r="B8" s="8"/>
       <c r="C8" s="15"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="83">
+      <c r="D8" s="65"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="60">
         <v>14</v>
       </c>
-      <c r="G8" s="84"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="122"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="66"/>
       <c r="L8" s="16" t="s">
         <v>66</v>
       </c>
       <c r="M8" s="15">
         <v>1</v>
       </c>
-      <c r="N8" s="60" t="s">
+      <c r="N8" s="123" t="s">
         <v>67</v>
       </c>
-      <c r="O8" s="62"/>
+      <c r="O8" s="125"/>
     </row>
     <row r="9" spans="1:16" ht="22.5" customHeight="1">
       <c r="A9" s="12"/>
       <c r="B9" s="8"/>
       <c r="C9" s="15"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="83">
+      <c r="D9" s="65"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="60">
         <v>15</v>
       </c>
-      <c r="G9" s="84"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="123"/>
-      <c r="K9" s="122"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="66"/>
       <c r="L9" s="16" t="s">
         <v>68</v>
       </c>
       <c r="M9" s="15">
         <v>1</v>
       </c>
-      <c r="N9" s="60" t="s">
+      <c r="N9" s="123" t="s">
         <v>69</v>
       </c>
-      <c r="O9" s="62"/>
+      <c r="O9" s="125"/>
     </row>
     <row r="10" spans="1:16" ht="22.5" customHeight="1">
       <c r="A10" s="12"/>
       <c r="B10" s="8"/>
       <c r="C10" s="15"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="80">
+      <c r="D10" s="54"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="54">
         <v>16</v>
       </c>
-      <c r="G10" s="81"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="81"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="55"/>
       <c r="L10" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M10" s="15">
         <v>1</v>
       </c>
-      <c r="N10" s="159" t="s">
+      <c r="N10" s="147" t="s">
         <v>70</v>
       </c>
-      <c r="O10" s="160"/>
+      <c r="O10" s="148"/>
     </row>
     <row r="11" spans="1:16" ht="22.5" customHeight="1">
       <c r="A11" s="12"/>
       <c r="B11" s="8"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="80">
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="54">
         <v>17</v>
       </c>
-      <c r="G11" s="81"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="81"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="55"/>
       <c r="L11" s="16" t="s">
         <v>71</v>
       </c>
       <c r="M11" s="15">
         <v>1</v>
       </c>
-      <c r="N11" s="159" t="s">
+      <c r="N11" s="147" t="s">
         <v>72</v>
       </c>
-      <c r="O11" s="160"/>
+      <c r="O11" s="148"/>
     </row>
     <row r="12" spans="1:16" ht="22.5" customHeight="1">
       <c r="A12" s="12"/>
       <c r="B12" s="8"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="80">
+      <c r="D12" s="54"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="54">
         <v>18</v>
       </c>
-      <c r="G12" s="81"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="81"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="55"/>
       <c r="L12" s="16" t="s">
         <v>73</v>
       </c>
       <c r="M12" s="15">
         <v>1</v>
       </c>
-      <c r="N12" s="159" t="s">
+      <c r="N12" s="147" t="s">
         <v>74</v>
       </c>
-      <c r="O12" s="160"/>
+      <c r="O12" s="148"/>
     </row>
     <row r="13" spans="1:16" ht="22.5" customHeight="1">
       <c r="A13" s="12"/>
       <c r="B13" s="8"/>
       <c r="C13" s="15"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="80">
+      <c r="D13" s="54"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="54">
         <v>19</v>
       </c>
-      <c r="G13" s="81"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="81"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="55"/>
       <c r="L13" s="16" t="s">
         <v>75</v>
       </c>
       <c r="M13" s="15">
         <v>1</v>
       </c>
-      <c r="N13" s="80" t="s">
+      <c r="N13" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="O13" s="81"/>
+      <c r="O13" s="55"/>
     </row>
     <row r="14" spans="1:16" ht="22.5" customHeight="1">
       <c r="A14" s="12"/>
       <c r="B14" s="8"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="80">
+      <c r="D14" s="54"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="54">
         <v>20</v>
       </c>
-      <c r="G14" s="81"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="81"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="55"/>
       <c r="L14" s="16" t="s">
         <v>77</v>
       </c>
       <c r="M14" s="15">
         <v>1</v>
       </c>
-      <c r="N14" s="80" t="s">
+      <c r="N14" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="O14" s="81"/>
+      <c r="O14" s="55"/>
     </row>
     <row r="15" spans="1:16" ht="22.5" customHeight="1">
       <c r="A15" s="12"/>
       <c r="B15" s="8"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="80">
+      <c r="D15" s="54"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="54">
         <v>21</v>
       </c>
-      <c r="G15" s="81"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="81"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="55"/>
       <c r="L15" s="16" t="s">
         <v>79</v>
       </c>
       <c r="M15" s="15">
         <v>1</v>
       </c>
-      <c r="N15" s="80" t="s">
+      <c r="N15" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="O15" s="81"/>
+      <c r="O15" s="55"/>
     </row>
     <row r="16" spans="1:16" ht="22.5" customHeight="1">
       <c r="A16" s="12"/>
       <c r="B16" s="8"/>
       <c r="C16" s="15"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="80">
+      <c r="D16" s="54"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="54">
         <v>22</v>
       </c>
-      <c r="G16" s="81"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="81"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="55"/>
       <c r="L16" s="28" t="s">
         <v>81</v>
       </c>
       <c r="M16" s="15">
         <v>1</v>
       </c>
-      <c r="N16" s="80" t="s">
+      <c r="N16" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="O16" s="81"/>
+      <c r="O16" s="55"/>
     </row>
     <row r="17" spans="1:15" ht="22.5" customHeight="1">
       <c r="A17" s="12"/>
       <c r="B17" s="8"/>
       <c r="C17" s="15"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="80">
+      <c r="D17" s="54"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="54">
         <v>23</v>
       </c>
-      <c r="G17" s="81"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="81"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="55"/>
       <c r="L17" s="28" t="s">
         <v>83</v>
       </c>
       <c r="M17" s="15">
         <v>1</v>
       </c>
-      <c r="N17" s="80" t="s">
+      <c r="N17" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="O17" s="81"/>
+      <c r="O17" s="55"/>
     </row>
     <row r="18" spans="1:15" ht="22.5" customHeight="1">
       <c r="A18" s="12"/>
       <c r="B18" s="8"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="80">
+      <c r="D18" s="54"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="54">
         <v>24</v>
       </c>
-      <c r="G18" s="81"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="81"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="55"/>
       <c r="L18" s="28" t="s">
         <v>85</v>
       </c>
       <c r="M18" s="15">
         <v>2</v>
       </c>
-      <c r="N18" s="80" t="s">
+      <c r="N18" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="O18" s="81"/>
+      <c r="O18" s="55"/>
     </row>
     <row r="19" spans="1:15" ht="6.75" customHeight="1" thickBot="1">
       <c r="A19" s="12"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="156"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="158"/>
-      <c r="M19" s="156"/>
-      <c r="N19" s="80"/>
-      <c r="O19" s="81"/>
+      <c r="C19" s="149"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="150"/>
+      <c r="M19" s="149"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="55"/>
     </row>
     <row r="20" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="116"/>
-      <c r="C20" s="156"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="158"/>
-      <c r="M20" s="156"/>
-      <c r="N20" s="80"/>
-      <c r="O20" s="81"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="149"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="150"/>
+      <c r="M20" s="149"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="55"/>
     </row>
     <row r="21" spans="1:15" ht="22.5" customHeight="1">
-      <c r="A21" s="48"/>
-      <c r="B21" s="117"/>
+      <c r="A21" s="80"/>
+      <c r="B21" s="71"/>
       <c r="C21" s="15"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="80">
+      <c r="D21" s="54"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="54">
         <v>25</v>
       </c>
-      <c r="G21" s="81"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="81"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="55"/>
       <c r="L21" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M21" s="15">
         <v>1</v>
       </c>
-      <c r="N21" s="80" t="s">
+      <c r="N21" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="O21" s="81"/>
+      <c r="O21" s="55"/>
     </row>
     <row r="22" spans="1:15" ht="22.5" customHeight="1">
-      <c r="A22" s="48"/>
-      <c r="B22" s="117"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="71"/>
       <c r="C22" s="15"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="81"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="55"/>
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
-      <c r="N22" s="80"/>
-      <c r="O22" s="81"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="55"/>
     </row>
     <row r="23" spans="1:15" ht="22.5" customHeight="1">
-      <c r="A23" s="48"/>
-      <c r="B23" s="117"/>
+      <c r="A23" s="80"/>
+      <c r="B23" s="71"/>
       <c r="C23" s="15"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="80">
+      <c r="D23" s="54"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="54">
         <v>27</v>
       </c>
-      <c r="G23" s="81"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="81"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="55"/>
       <c r="L23" s="15" t="s">
         <v>88</v>
       </c>
       <c r="M23" s="15">
         <v>1</v>
       </c>
-      <c r="N23" s="80" t="s">
+      <c r="N23" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="O23" s="81"/>
+      <c r="O23" s="55"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A24" s="49"/>
-      <c r="B24" s="157"/>
-      <c r="C24" s="156"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="156"/>
-      <c r="M24" s="156"/>
-      <c r="N24" s="80"/>
-      <c r="O24" s="81"/>
+      <c r="A24" s="81"/>
+      <c r="B24" s="151"/>
+      <c r="C24" s="149"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="149"/>
+      <c r="M24" s="149"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="55"/>
     </row>
     <row r="25" spans="1:15" ht="4.5" customHeight="1">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="116"/>
-      <c r="C25" s="156"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="81"/>
-      <c r="L25" s="156"/>
-      <c r="M25" s="156"/>
-      <c r="N25" s="80"/>
-      <c r="O25" s="81"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="149"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="55"/>
     </row>
     <row r="26" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A26" s="48"/>
-      <c r="B26" s="117"/>
+      <c r="A26" s="80"/>
+      <c r="B26" s="71"/>
       <c r="C26" s="15"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="80">
+      <c r="D26" s="54"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="54">
         <v>28</v>
       </c>
-      <c r="G26" s="81"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="81"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="55"/>
       <c r="L26" s="16" t="s">
         <v>91</v>
       </c>
       <c r="M26" s="15">
         <v>1</v>
       </c>
-      <c r="N26" s="80" t="s">
+      <c r="N26" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="O26" s="81"/>
+      <c r="O26" s="55"/>
     </row>
     <row r="27" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A27" s="48"/>
-      <c r="B27" s="117"/>
+      <c r="A27" s="80"/>
+      <c r="B27" s="71"/>
       <c r="C27" s="15"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="81"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="55"/>
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
-      <c r="N27" s="80"/>
-      <c r="O27" s="81"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="55"/>
     </row>
     <row r="28" spans="1:15" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A28" s="49"/>
-      <c r="B28" s="157"/>
+      <c r="A28" s="81"/>
+      <c r="B28" s="151"/>
       <c r="C28" s="15"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="81"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="55"/>
       <c r="L28" s="19" t="s">
         <v>92</v>
       </c>
       <c r="M28" s="15"/>
-      <c r="N28" s="80"/>
-      <c r="O28" s="81"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="55"/>
     </row>
     <row r="29" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A29" s="152" t="s">
+      <c r="A29" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="153"/>
+      <c r="B29" s="155"/>
       <c r="C29" s="15"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="80">
+      <c r="D29" s="54"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="54">
         <v>29</v>
       </c>
-      <c r="G29" s="81"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="81"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="55"/>
       <c r="L29" s="16" t="s">
         <v>93</v>
       </c>
       <c r="M29" s="15">
         <v>12</v>
       </c>
-      <c r="N29" s="80" t="s">
+      <c r="N29" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="O29" s="81"/>
+      <c r="O29" s="55"/>
     </row>
     <row r="30" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A30" s="72"/>
-      <c r="B30" s="154"/>
+      <c r="A30" s="133"/>
+      <c r="B30" s="156"/>
       <c r="C30" s="15"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="81"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="55"/>
       <c r="L30" s="15"/>
       <c r="M30" s="15"/>
-      <c r="N30" s="80" t="s">
+      <c r="N30" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="O30" s="81"/>
+      <c r="O30" s="55"/>
     </row>
     <row r="31" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A31" s="72"/>
-      <c r="B31" s="154"/>
+      <c r="A31" s="133"/>
+      <c r="B31" s="156"/>
       <c r="C31" s="15"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="80">
+      <c r="D31" s="54"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="54">
         <v>30</v>
       </c>
-      <c r="G31" s="81"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="82"/>
-      <c r="K31" s="81"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="55"/>
       <c r="L31" s="16" t="s">
         <v>96</v>
       </c>
       <c r="M31" s="15">
         <v>20</v>
       </c>
-      <c r="N31" s="80" t="s">
+      <c r="N31" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="O31" s="81"/>
+      <c r="O31" s="55"/>
     </row>
     <row r="32" spans="1:15" ht="4.5" customHeight="1" thickBot="1">
-      <c r="A32" s="73"/>
-      <c r="B32" s="155"/>
-      <c r="C32" s="156"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="81"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="82"/>
-      <c r="J32" s="82"/>
-      <c r="K32" s="81"/>
-      <c r="L32" s="156"/>
-      <c r="M32" s="156"/>
-      <c r="N32" s="80" t="s">
+      <c r="A32" s="134"/>
+      <c r="B32" s="157"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
+      <c r="N32" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="O32" s="81"/>
+      <c r="O32" s="55"/>
     </row>
     <row r="33" spans="1:16" ht="18.75" customHeight="1">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="117"/>
-      <c r="C33" s="156"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="82"/>
-      <c r="J33" s="82"/>
-      <c r="K33" s="81"/>
-      <c r="L33" s="156"/>
-      <c r="M33" s="156"/>
-      <c r="N33" s="80"/>
-      <c r="O33" s="81"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="55"/>
     </row>
     <row r="34" spans="1:16" ht="23.25" customHeight="1">
-      <c r="A34" s="48"/>
-      <c r="B34" s="117"/>
+      <c r="A34" s="80"/>
+      <c r="B34" s="71"/>
       <c r="C34" s="15"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="80"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="82"/>
-      <c r="K34" s="81"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="55"/>
       <c r="L34" s="15"/>
       <c r="M34" s="15"/>
-      <c r="N34" s="80" t="s">
+      <c r="N34" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="O34" s="81"/>
+      <c r="O34" s="55"/>
     </row>
     <row r="35" spans="1:16" ht="23.25" customHeight="1">
-      <c r="A35" s="48"/>
-      <c r="B35" s="117"/>
+      <c r="A35" s="80"/>
+      <c r="B35" s="71"/>
       <c r="C35" s="15"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="80"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="81"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="55"/>
       <c r="L35" s="15"/>
       <c r="M35" s="15"/>
-      <c r="N35" s="80" t="s">
+      <c r="N35" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="O35" s="81"/>
+      <c r="O35" s="55"/>
     </row>
     <row r="36" spans="1:16" ht="23.25" customHeight="1">
-      <c r="A36" s="48"/>
-      <c r="B36" s="117"/>
+      <c r="A36" s="80"/>
+      <c r="B36" s="71"/>
       <c r="C36" s="15"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="80"/>
-      <c r="I36" s="82"/>
-      <c r="J36" s="82"/>
-      <c r="K36" s="81"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="55"/>
       <c r="L36" s="15"/>
       <c r="M36" s="15"/>
-      <c r="N36" s="80" t="s">
+      <c r="N36" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="O36" s="81"/>
+      <c r="O36" s="55"/>
     </row>
     <row r="37" spans="1:16" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A37" s="49"/>
-      <c r="B37" s="157"/>
-      <c r="C37" s="156"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="80"/>
-      <c r="I37" s="82"/>
-      <c r="J37" s="82"/>
-      <c r="K37" s="81"/>
-      <c r="L37" s="156"/>
-      <c r="M37" s="156"/>
-      <c r="N37" s="80" t="s">
+      <c r="A37" s="81"/>
+      <c r="B37" s="151"/>
+      <c r="C37" s="149"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
+      <c r="N37" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="O37" s="81"/>
+      <c r="O37" s="55"/>
     </row>
     <row r="38" spans="1:16" ht="6.75" customHeight="1">
-      <c r="A38" s="47" t="s">
+      <c r="A38" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="116"/>
-      <c r="C38" s="156"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="80"/>
-      <c r="I38" s="82"/>
-      <c r="J38" s="82"/>
-      <c r="K38" s="81"/>
-      <c r="L38" s="156"/>
-      <c r="M38" s="156"/>
-      <c r="N38" s="80"/>
-      <c r="O38" s="81"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="149"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="55"/>
     </row>
     <row r="39" spans="1:16" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A39" s="48"/>
-      <c r="B39" s="117"/>
+      <c r="A39" s="80"/>
+      <c r="B39" s="71"/>
       <c r="C39" s="20"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="86"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="90"/>
-      <c r="J39" s="90"/>
-      <c r="K39" s="86"/>
+      <c r="D39" s="87"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="87"/>
+      <c r="G39" s="88"/>
+      <c r="H39" s="87"/>
+      <c r="I39" s="92"/>
+      <c r="J39" s="92"/>
+      <c r="K39" s="88"/>
       <c r="L39" s="20"/>
       <c r="M39" s="20"/>
-      <c r="N39" s="85"/>
-      <c r="O39" s="86"/>
+      <c r="N39" s="87"/>
+      <c r="O39" s="88"/>
     </row>
     <row r="40" spans="1:16" ht="15" customHeight="1">
-      <c r="A40" s="48"/>
-      <c r="B40" s="117"/>
-      <c r="C40" s="139"/>
-      <c r="D40" s="140"/>
-      <c r="E40" s="139"/>
-      <c r="F40" s="140"/>
-      <c r="G40" s="139"/>
-      <c r="H40" s="140"/>
+      <c r="A40" s="80"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="152"/>
+      <c r="D40" s="153"/>
+      <c r="E40" s="152"/>
+      <c r="F40" s="153"/>
+      <c r="G40" s="152"/>
+      <c r="H40" s="153"/>
       <c r="I40" s="21"/>
       <c r="J40" s="21"/>
-      <c r="K40" s="96" t="s">
-        <v>167</v>
-      </c>
-      <c r="L40" s="66"/>
-      <c r="M40" s="66"/>
-      <c r="N40" s="67"/>
-      <c r="O40" s="141" t="s">
+      <c r="K40" s="100" t="s">
+        <v>166</v>
+      </c>
+      <c r="L40" s="129"/>
+      <c r="M40" s="129"/>
+      <c r="N40" s="130"/>
+      <c r="O40" s="158" t="s">
         <v>11</v>
       </c>
       <c r="P40" s="5"/>
     </row>
     <row r="41" spans="1:16" ht="4.5" customHeight="1">
-      <c r="A41" s="48"/>
-      <c r="B41" s="117"/>
-      <c r="C41" s="143"/>
-      <c r="D41" s="144"/>
-      <c r="E41" s="143"/>
-      <c r="F41" s="144"/>
-      <c r="G41" s="143"/>
-      <c r="H41" s="144"/>
-      <c r="I41" s="147"/>
-      <c r="J41" s="147"/>
-      <c r="K41" s="65"/>
-      <c r="L41" s="66"/>
-      <c r="M41" s="66"/>
-      <c r="N41" s="67"/>
-      <c r="O41" s="142"/>
+      <c r="A41" s="80"/>
+      <c r="B41" s="71"/>
+      <c r="C41" s="160"/>
+      <c r="D41" s="161"/>
+      <c r="E41" s="160"/>
+      <c r="F41" s="161"/>
+      <c r="G41" s="160"/>
+      <c r="H41" s="161"/>
+      <c r="I41" s="164"/>
+      <c r="J41" s="164"/>
+      <c r="K41" s="128"/>
+      <c r="L41" s="129"/>
+      <c r="M41" s="129"/>
+      <c r="N41" s="130"/>
+      <c r="O41" s="159"/>
       <c r="P41" s="5"/>
     </row>
     <row r="42" spans="1:16" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A42" s="48"/>
-      <c r="B42" s="117"/>
-      <c r="C42" s="145"/>
-      <c r="D42" s="146"/>
-      <c r="E42" s="145"/>
-      <c r="F42" s="146"/>
-      <c r="G42" s="145"/>
-      <c r="H42" s="146"/>
-      <c r="I42" s="148"/>
-      <c r="J42" s="148"/>
-      <c r="K42" s="65"/>
-      <c r="L42" s="66"/>
-      <c r="M42" s="66"/>
-      <c r="N42" s="67"/>
-      <c r="O42" s="141">
+      <c r="A42" s="80"/>
+      <c r="B42" s="71"/>
+      <c r="C42" s="162"/>
+      <c r="D42" s="163"/>
+      <c r="E42" s="162"/>
+      <c r="F42" s="163"/>
+      <c r="G42" s="162"/>
+      <c r="H42" s="163"/>
+      <c r="I42" s="165"/>
+      <c r="J42" s="165"/>
+      <c r="K42" s="128"/>
+      <c r="L42" s="129"/>
+      <c r="M42" s="129"/>
+      <c r="N42" s="130"/>
+      <c r="O42" s="158">
         <v>2</v>
       </c>
       <c r="P42" s="5"/>
     </row>
     <row r="43" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A43" s="49"/>
-      <c r="B43" s="157"/>
-      <c r="C43" s="150" t="s">
+      <c r="A43" s="81"/>
+      <c r="B43" s="151"/>
+      <c r="C43" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="151"/>
-      <c r="E43" s="54" t="s">
+      <c r="D43" s="143"/>
+      <c r="E43" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="F43" s="56"/>
-      <c r="G43" s="54" t="s">
+      <c r="F43" s="119"/>
+      <c r="G43" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="56"/>
+      <c r="H43" s="119"/>
       <c r="I43" s="22" t="s">
         <v>13</v>
       </c>
       <c r="J43" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="K43" s="68"/>
-      <c r="L43" s="69"/>
-      <c r="M43" s="69"/>
-      <c r="N43" s="70"/>
-      <c r="O43" s="149"/>
+      <c r="K43" s="106"/>
+      <c r="L43" s="131"/>
+      <c r="M43" s="131"/>
+      <c r="N43" s="107"/>
+      <c r="O43" s="166"/>
       <c r="P43" s="5"/>
     </row>
     <row r="44" spans="1:16" s="6" customFormat="1" ht="15" customHeight="1">
@@ -6698,102 +6698,79 @@
       <c r="K44" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L44" s="43" t="s">
+      <c r="L44" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="M44" s="43"/>
-      <c r="N44" s="43"/>
-      <c r="O44" s="43"/>
+      <c r="M44" s="109"/>
+      <c r="N44" s="109"/>
+      <c r="O44" s="109"/>
       <c r="P44" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="173">
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:E20"/>
-    <mergeCell ref="F19:G20"/>
-    <mergeCell ref="H19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:O20"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:E25"/>
-    <mergeCell ref="F24:G25"/>
-    <mergeCell ref="H24:K25"/>
-    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="K40:N43"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:F42"/>
+    <mergeCell ref="G41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:E33"/>
+    <mergeCell ref="F32:G33"/>
+    <mergeCell ref="H32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N32:O33"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:E38"/>
+    <mergeCell ref="F37:G38"/>
+    <mergeCell ref="H37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:O38"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="N27:O27"/>
     <mergeCell ref="D28:E28"/>
@@ -6818,73 +6795,96 @@
     <mergeCell ref="N21:O21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:G22"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:E38"/>
-    <mergeCell ref="F37:G38"/>
-    <mergeCell ref="H37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:O38"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="B38:B43"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:E33"/>
-    <mergeCell ref="F32:G33"/>
-    <mergeCell ref="H32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="N32:O33"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="K40:N43"/>
-    <mergeCell ref="O40:O41"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="E41:F42"/>
-    <mergeCell ref="G41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:E25"/>
+    <mergeCell ref="F24:G25"/>
+    <mergeCell ref="H24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:E20"/>
+    <mergeCell ref="F19:G20"/>
+    <mergeCell ref="H19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:O20"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="N3:O3"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="97" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="92" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -6893,8 +6893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
@@ -8012,903 +8012,903 @@
       <c r="C2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="161" t="s">
+      <c r="D2" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="162"/>
-      <c r="F2" s="161" t="s">
+      <c r="E2" s="140"/>
+      <c r="F2" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="162"/>
-      <c r="H2" s="150" t="s">
+      <c r="G2" s="140"/>
+      <c r="H2" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="151"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="143"/>
       <c r="L2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="M2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="132" t="s">
+      <c r="N2" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="133"/>
+      <c r="O2" s="48"/>
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:16" ht="22.5" customHeight="1">
       <c r="A3" s="12"/>
       <c r="B3" s="8"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="164">
+      <c r="D3" s="144"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="144">
         <v>31</v>
       </c>
-      <c r="G3" s="165"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="165"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="145"/>
       <c r="L3" s="26" t="s">
         <v>103</v>
       </c>
       <c r="M3" s="13">
         <v>13</v>
       </c>
-      <c r="N3" s="164" t="s">
+      <c r="N3" s="144" t="s">
         <v>104</v>
       </c>
-      <c r="O3" s="165"/>
+      <c r="O3" s="145"/>
     </row>
     <row r="4" spans="1:16" ht="22.5" customHeight="1">
       <c r="A4" s="12"/>
       <c r="B4" s="8"/>
       <c r="C4" s="15"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="81"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="55"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15"/>
-      <c r="N4" s="80" t="s">
+      <c r="N4" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="O4" s="81"/>
+      <c r="O4" s="55"/>
     </row>
     <row r="5" spans="1:16" ht="22.5" customHeight="1">
       <c r="A5" s="12"/>
       <c r="B5" s="8"/>
       <c r="C5" s="15"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="81"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="55"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
-      <c r="N5" s="80" t="s">
+      <c r="N5" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="O5" s="81"/>
+      <c r="O5" s="55"/>
     </row>
     <row r="6" spans="1:16" ht="22.5" customHeight="1">
       <c r="A6" s="12"/>
       <c r="B6" s="8"/>
       <c r="C6" s="15"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="81"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="55"/>
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
-      <c r="N6" s="80" t="s">
+      <c r="N6" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="O6" s="81"/>
+      <c r="O6" s="55"/>
     </row>
     <row r="7" spans="1:16" ht="22.5" customHeight="1">
       <c r="A7" s="12"/>
       <c r="B7" s="8"/>
       <c r="C7" s="15"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="81"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="55"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
-      <c r="N7" s="80" t="s">
+      <c r="N7" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="O7" s="81"/>
+      <c r="O7" s="55"/>
     </row>
     <row r="8" spans="1:16" ht="22.5" customHeight="1">
       <c r="A8" s="12"/>
       <c r="B8" s="8"/>
       <c r="C8" s="15"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="83">
+      <c r="D8" s="65"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="60">
         <v>32</v>
       </c>
-      <c r="G8" s="84"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="122"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="66"/>
       <c r="L8" s="16" t="s">
         <v>108</v>
       </c>
       <c r="M8" s="15">
-        <v>3</v>
-      </c>
-      <c r="N8" s="121" t="s">
-        <v>109</v>
-      </c>
-      <c r="O8" s="122"/>
+        <v>2</v>
+      </c>
+      <c r="N8" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="O8" s="66"/>
     </row>
     <row r="9" spans="1:16" ht="22.5" customHeight="1">
       <c r="A9" s="12"/>
       <c r="B9" s="8"/>
       <c r="C9" s="15"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="83">
+      <c r="D9" s="65"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="60">
         <v>33</v>
       </c>
-      <c r="G9" s="84"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="123"/>
-      <c r="K9" s="122"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="66"/>
       <c r="L9" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M9" s="15">
         <v>4</v>
       </c>
-      <c r="N9" s="121" t="s">
-        <v>111</v>
-      </c>
-      <c r="O9" s="122"/>
+      <c r="N9" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="O9" s="66"/>
     </row>
     <row r="10" spans="1:16" ht="22.5" customHeight="1">
       <c r="A10" s="12"/>
       <c r="B10" s="8"/>
       <c r="C10" s="15"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="81"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="55"/>
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
-      <c r="N10" s="80" t="s">
-        <v>112</v>
-      </c>
-      <c r="O10" s="81"/>
+      <c r="N10" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="O10" s="55"/>
     </row>
     <row r="11" spans="1:16" ht="22.5" customHeight="1">
       <c r="A11" s="12"/>
       <c r="B11" s="8"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="80">
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="54">
         <v>34</v>
       </c>
-      <c r="G11" s="81"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="81"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="55"/>
       <c r="L11" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M11" s="15">
         <v>2</v>
       </c>
-      <c r="N11" s="80" t="s">
-        <v>114</v>
-      </c>
-      <c r="O11" s="81"/>
+      <c r="N11" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" s="55"/>
     </row>
     <row r="12" spans="1:16" ht="22.5" customHeight="1">
       <c r="A12" s="12"/>
       <c r="B12" s="8"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="80">
+      <c r="D12" s="54"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="54">
         <v>35</v>
       </c>
-      <c r="G12" s="81"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="81"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="55"/>
       <c r="L12" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M12" s="15">
         <v>4</v>
       </c>
-      <c r="N12" s="80" t="s">
-        <v>116</v>
-      </c>
-      <c r="O12" s="81"/>
+      <c r="N12" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="O12" s="55"/>
     </row>
     <row r="13" spans="1:16" ht="22.5" customHeight="1">
       <c r="A13" s="12"/>
       <c r="B13" s="8"/>
       <c r="C13" s="15"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="81"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="55"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
-      <c r="N13" s="80" t="s">
-        <v>117</v>
-      </c>
-      <c r="O13" s="81"/>
+      <c r="N13" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="O13" s="55"/>
     </row>
     <row r="14" spans="1:16" ht="22.5" customHeight="1">
       <c r="A14" s="12"/>
       <c r="B14" s="8"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="80">
+      <c r="D14" s="54"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="54">
         <v>36</v>
       </c>
-      <c r="G14" s="81"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="81"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="55"/>
       <c r="L14" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M14" s="15">
         <v>1</v>
       </c>
-      <c r="N14" s="80" t="s">
-        <v>119</v>
-      </c>
-      <c r="O14" s="81"/>
+      <c r="N14" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="O14" s="55"/>
     </row>
     <row r="15" spans="1:16" ht="22.5" customHeight="1">
       <c r="A15" s="12"/>
       <c r="B15" s="8"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="80">
+      <c r="D15" s="54"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="54">
         <v>37</v>
       </c>
-      <c r="G15" s="81"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="81"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="55"/>
       <c r="L15" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M15" s="15">
         <v>14</v>
       </c>
-      <c r="N15" s="80" t="s">
-        <v>121</v>
-      </c>
-      <c r="O15" s="81"/>
+      <c r="N15" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="O15" s="55"/>
     </row>
     <row r="16" spans="1:16" ht="22.5" customHeight="1">
       <c r="A16" s="12"/>
       <c r="B16" s="8"/>
       <c r="C16" s="15"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="81"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="55"/>
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
-      <c r="N16" s="80" t="s">
-        <v>122</v>
-      </c>
-      <c r="O16" s="81"/>
+      <c r="N16" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="O16" s="55"/>
     </row>
     <row r="17" spans="1:15" ht="22.5" customHeight="1">
       <c r="A17" s="12"/>
       <c r="B17" s="8"/>
       <c r="C17" s="15"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="81"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="55"/>
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
-      <c r="N17" s="80" t="s">
-        <v>123</v>
-      </c>
-      <c r="O17" s="81"/>
+      <c r="N17" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="O17" s="55"/>
     </row>
     <row r="18" spans="1:15" ht="22.5" customHeight="1">
       <c r="A18" s="12"/>
       <c r="B18" s="8"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="81"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="55"/>
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
-      <c r="N18" s="80" t="s">
-        <v>124</v>
-      </c>
-      <c r="O18" s="81"/>
+      <c r="N18" s="54" t="s">
+        <v>123</v>
+      </c>
+      <c r="O18" s="55"/>
     </row>
     <row r="19" spans="1:15" ht="6.75" customHeight="1" thickBot="1">
       <c r="A19" s="12"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="156"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="80">
+      <c r="C19" s="149"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="54">
         <v>38</v>
       </c>
-      <c r="G19" s="81"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="156" t="s">
+      <c r="G19" s="55"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="149" t="s">
+        <v>125</v>
+      </c>
+      <c r="M19" s="149">
+        <v>1</v>
+      </c>
+      <c r="N19" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="O19" s="55"/>
+    </row>
+    <row r="20" spans="1:15" ht="16.5" customHeight="1">
+      <c r="A20" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="70"/>
+      <c r="C20" s="149"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="149"/>
+      <c r="M20" s="149"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="55"/>
+    </row>
+    <row r="21" spans="1:15" ht="22.5" customHeight="1">
+      <c r="A21" s="80"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="54">
+        <v>39</v>
+      </c>
+      <c r="G21" s="55"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="15" t="s">
         <v>126</v>
-      </c>
-      <c r="M19" s="156">
-        <v>1</v>
-      </c>
-      <c r="N19" s="80" t="s">
-        <v>125</v>
-      </c>
-      <c r="O19" s="81"/>
-    </row>
-    <row r="20" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A20" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="116"/>
-      <c r="C20" s="156"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="156"/>
-      <c r="M20" s="156"/>
-      <c r="N20" s="80"/>
-      <c r="O20" s="81"/>
-    </row>
-    <row r="21" spans="1:15" ht="22.5" customHeight="1">
-      <c r="A21" s="48"/>
-      <c r="B21" s="117"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="80">
-        <v>39</v>
-      </c>
-      <c r="G21" s="81"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="81"/>
-      <c r="L21" s="15" t="s">
-        <v>127</v>
       </c>
       <c r="M21" s="15">
         <v>48</v>
       </c>
-      <c r="N21" s="80" t="s">
-        <v>128</v>
-      </c>
-      <c r="O21" s="81"/>
+      <c r="N21" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="O21" s="55"/>
     </row>
     <row r="22" spans="1:15" ht="22.5" customHeight="1">
-      <c r="A22" s="48"/>
-      <c r="B22" s="117"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="71"/>
       <c r="C22" s="15"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="81"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="55"/>
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
-      <c r="N22" s="80"/>
-      <c r="O22" s="81"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="55"/>
     </row>
     <row r="23" spans="1:15" ht="22.5" customHeight="1">
-      <c r="A23" s="48"/>
-      <c r="B23" s="117"/>
+      <c r="A23" s="80"/>
+      <c r="B23" s="71"/>
       <c r="C23" s="15"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="81"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="55"/>
       <c r="L23" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M23" s="15"/>
-      <c r="N23" s="80"/>
-      <c r="O23" s="81"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="55"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A24" s="49"/>
-      <c r="B24" s="157"/>
-      <c r="C24" s="156"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="80">
+      <c r="A24" s="81"/>
+      <c r="B24" s="151"/>
+      <c r="C24" s="149"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="54">
         <v>40</v>
       </c>
-      <c r="G24" s="81"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="81"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="55"/>
       <c r="L24" s="167" t="s">
-        <v>176</v>
-      </c>
-      <c r="M24" s="156">
+        <v>175</v>
+      </c>
+      <c r="M24" s="149">
         <v>5</v>
       </c>
-      <c r="N24" s="80" t="s">
-        <v>129</v>
-      </c>
-      <c r="O24" s="81"/>
+      <c r="N24" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="O24" s="55"/>
     </row>
     <row r="25" spans="1:15" ht="4.5" customHeight="1">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="116"/>
-      <c r="C25" s="156"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="81"/>
-      <c r="L25" s="156"/>
-      <c r="M25" s="156"/>
-      <c r="N25" s="80"/>
-      <c r="O25" s="81"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="149"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="55"/>
     </row>
     <row r="26" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A26" s="48"/>
-      <c r="B26" s="117"/>
+      <c r="A26" s="80"/>
+      <c r="B26" s="71"/>
       <c r="C26" s="15"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="81"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="55"/>
       <c r="L26" s="16"/>
       <c r="M26" s="15"/>
-      <c r="N26" s="80" t="s">
-        <v>132</v>
-      </c>
-      <c r="O26" s="81"/>
+      <c r="N26" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="O26" s="55"/>
     </row>
     <row r="27" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A27" s="48"/>
-      <c r="B27" s="117"/>
+      <c r="A27" s="80"/>
+      <c r="B27" s="71"/>
       <c r="C27" s="15"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="80">
+      <c r="D27" s="54"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="54">
         <v>41</v>
       </c>
-      <c r="G27" s="81"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="81"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="55"/>
       <c r="L27" s="41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M27" s="40">
         <v>20</v>
       </c>
-      <c r="N27" s="80" t="s">
-        <v>131</v>
-      </c>
-      <c r="O27" s="81"/>
+      <c r="N27" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="O27" s="55"/>
     </row>
     <row r="28" spans="1:15" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A28" s="49"/>
-      <c r="B28" s="157"/>
+      <c r="A28" s="81"/>
+      <c r="B28" s="151"/>
       <c r="C28" s="15"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="81"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="55"/>
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
-      <c r="N28" s="80"/>
-      <c r="O28" s="81"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="55"/>
     </row>
     <row r="29" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A29" s="152" t="s">
+      <c r="A29" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="153"/>
+      <c r="B29" s="155"/>
       <c r="C29" s="15"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="80">
+      <c r="D29" s="54"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="54">
         <v>43</v>
       </c>
-      <c r="G29" s="81"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="81"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="55"/>
       <c r="L29" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M29" s="15">
         <v>4</v>
       </c>
-      <c r="N29" s="80" t="s">
-        <v>134</v>
-      </c>
-      <c r="O29" s="81"/>
+      <c r="N29" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="O29" s="55"/>
     </row>
     <row r="30" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A30" s="72"/>
-      <c r="B30" s="154"/>
+      <c r="A30" s="133"/>
+      <c r="B30" s="156"/>
       <c r="C30" s="15"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="81"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="55"/>
       <c r="L30" s="15"/>
       <c r="M30" s="15"/>
-      <c r="N30" s="80"/>
-      <c r="O30" s="81"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="55"/>
     </row>
     <row r="31" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A31" s="72"/>
-      <c r="B31" s="154"/>
+      <c r="A31" s="133"/>
+      <c r="B31" s="156"/>
       <c r="C31" s="15"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="82"/>
-      <c r="K31" s="81"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="55"/>
       <c r="L31" s="19" t="s">
         <v>31</v>
       </c>
       <c r="M31" s="15"/>
-      <c r="N31" s="80"/>
-      <c r="O31" s="81"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="55"/>
     </row>
     <row r="32" spans="1:15" ht="4.5" customHeight="1" thickBot="1">
-      <c r="A32" s="73"/>
-      <c r="B32" s="155"/>
-      <c r="C32" s="156"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="80">
+      <c r="A32" s="134"/>
+      <c r="B32" s="157"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="54">
         <v>44</v>
       </c>
-      <c r="G32" s="81"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="82"/>
-      <c r="J32" s="82"/>
-      <c r="K32" s="81"/>
-      <c r="L32" s="156" t="s">
+      <c r="G32" s="55"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="149" t="s">
+        <v>134</v>
+      </c>
+      <c r="M32" s="149">
+        <v>3</v>
+      </c>
+      <c r="N32" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="M32" s="156">
-        <v>3</v>
-      </c>
-      <c r="N32" s="80" t="s">
-        <v>136</v>
-      </c>
-      <c r="O32" s="81"/>
+      <c r="O32" s="55"/>
     </row>
     <row r="33" spans="1:16" ht="18.75" customHeight="1">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="117"/>
-      <c r="C33" s="156"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="82"/>
-      <c r="J33" s="82"/>
-      <c r="K33" s="81"/>
-      <c r="L33" s="156"/>
-      <c r="M33" s="156"/>
-      <c r="N33" s="80"/>
-      <c r="O33" s="81"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="55"/>
     </row>
     <row r="34" spans="1:16" ht="23.25" customHeight="1">
-      <c r="A34" s="48"/>
-      <c r="B34" s="117"/>
+      <c r="A34" s="80"/>
+      <c r="B34" s="71"/>
       <c r="C34" s="15"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="80"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="82"/>
-      <c r="K34" s="81"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="55"/>
       <c r="L34" s="15"/>
       <c r="M34" s="15"/>
-      <c r="N34" s="80" t="s">
-        <v>137</v>
-      </c>
-      <c r="O34" s="81"/>
+      <c r="N34" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="O34" s="55"/>
     </row>
     <row r="35" spans="1:16" ht="23.25" customHeight="1">
-      <c r="A35" s="48"/>
-      <c r="B35" s="117"/>
+      <c r="A35" s="80"/>
+      <c r="B35" s="71"/>
       <c r="C35" s="15"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="80">
+      <c r="D35" s="54"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="54">
         <v>45</v>
       </c>
-      <c r="G35" s="81"/>
-      <c r="H35" s="80"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="81"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="55"/>
       <c r="L35" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M35" s="15">
         <v>16</v>
       </c>
-      <c r="N35" s="80" t="s">
+      <c r="N35" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="O35" s="55"/>
+    </row>
+    <row r="36" spans="1:16" ht="23.25" customHeight="1">
+      <c r="A36" s="80"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="54">
+        <v>46</v>
+      </c>
+      <c r="G36" s="55"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="16" t="s">
         <v>138</v>
-      </c>
-      <c r="O35" s="81"/>
-    </row>
-    <row r="36" spans="1:16" ht="23.25" customHeight="1">
-      <c r="A36" s="48"/>
-      <c r="B36" s="117"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="80">
-        <v>46</v>
-      </c>
-      <c r="G36" s="81"/>
-      <c r="H36" s="80"/>
-      <c r="I36" s="82"/>
-      <c r="J36" s="82"/>
-      <c r="K36" s="81"/>
-      <c r="L36" s="16" t="s">
-        <v>139</v>
       </c>
       <c r="M36" s="15">
         <v>1</v>
       </c>
-      <c r="N36" s="113" t="s">
-        <v>174</v>
-      </c>
-      <c r="O36" s="81"/>
+      <c r="N36" s="74" t="s">
+        <v>173</v>
+      </c>
+      <c r="O36" s="55"/>
     </row>
     <row r="37" spans="1:16" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A37" s="49"/>
-      <c r="B37" s="157"/>
-      <c r="C37" s="156"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="80"/>
-      <c r="I37" s="82"/>
-      <c r="J37" s="82"/>
-      <c r="K37" s="81"/>
-      <c r="L37" s="156"/>
-      <c r="M37" s="156"/>
-      <c r="N37" s="80"/>
-      <c r="O37" s="81"/>
+      <c r="A37" s="81"/>
+      <c r="B37" s="151"/>
+      <c r="C37" s="149"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="55"/>
     </row>
     <row r="38" spans="1:16" ht="6.75" customHeight="1">
-      <c r="A38" s="47" t="s">
+      <c r="A38" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="116"/>
-      <c r="C38" s="156"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="80"/>
-      <c r="I38" s="82"/>
-      <c r="J38" s="82"/>
-      <c r="K38" s="81"/>
-      <c r="L38" s="156"/>
-      <c r="M38" s="156"/>
-      <c r="N38" s="80"/>
-      <c r="O38" s="81"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="149"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="55"/>
     </row>
     <row r="39" spans="1:16" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A39" s="48"/>
-      <c r="B39" s="117"/>
+      <c r="A39" s="80"/>
+      <c r="B39" s="71"/>
       <c r="C39" s="20"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="86"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="90"/>
-      <c r="J39" s="90"/>
-      <c r="K39" s="86"/>
+      <c r="D39" s="87"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="87"/>
+      <c r="G39" s="88"/>
+      <c r="H39" s="87"/>
+      <c r="I39" s="92"/>
+      <c r="J39" s="92"/>
+      <c r="K39" s="88"/>
       <c r="L39" s="20"/>
       <c r="M39" s="20"/>
-      <c r="N39" s="85"/>
-      <c r="O39" s="86"/>
+      <c r="N39" s="87"/>
+      <c r="O39" s="88"/>
     </row>
     <row r="40" spans="1:16" ht="15" customHeight="1">
-      <c r="A40" s="48"/>
-      <c r="B40" s="117"/>
-      <c r="C40" s="139"/>
-      <c r="D40" s="140"/>
-      <c r="E40" s="139"/>
-      <c r="F40" s="140"/>
-      <c r="G40" s="139"/>
-      <c r="H40" s="140"/>
+      <c r="A40" s="80"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="152"/>
+      <c r="D40" s="153"/>
+      <c r="E40" s="152"/>
+      <c r="F40" s="153"/>
+      <c r="G40" s="152"/>
+      <c r="H40" s="153"/>
       <c r="I40" s="21"/>
       <c r="J40" s="21"/>
-      <c r="K40" s="96" t="s">
-        <v>167</v>
-      </c>
-      <c r="L40" s="66"/>
-      <c r="M40" s="66"/>
-      <c r="N40" s="67"/>
-      <c r="O40" s="141" t="s">
+      <c r="K40" s="100" t="s">
+        <v>166</v>
+      </c>
+      <c r="L40" s="129"/>
+      <c r="M40" s="129"/>
+      <c r="N40" s="130"/>
+      <c r="O40" s="158" t="s">
         <v>11</v>
       </c>
       <c r="P40" s="5"/>
     </row>
     <row r="41" spans="1:16" ht="4.5" customHeight="1">
-      <c r="A41" s="48"/>
-      <c r="B41" s="117"/>
-      <c r="C41" s="143"/>
-      <c r="D41" s="144"/>
-      <c r="E41" s="143"/>
-      <c r="F41" s="144"/>
-      <c r="G41" s="143"/>
-      <c r="H41" s="144"/>
-      <c r="I41" s="147"/>
-      <c r="J41" s="147"/>
-      <c r="K41" s="65"/>
-      <c r="L41" s="66"/>
-      <c r="M41" s="66"/>
-      <c r="N41" s="67"/>
-      <c r="O41" s="142"/>
+      <c r="A41" s="80"/>
+      <c r="B41" s="71"/>
+      <c r="C41" s="160"/>
+      <c r="D41" s="161"/>
+      <c r="E41" s="160"/>
+      <c r="F41" s="161"/>
+      <c r="G41" s="160"/>
+      <c r="H41" s="161"/>
+      <c r="I41" s="164"/>
+      <c r="J41" s="164"/>
+      <c r="K41" s="128"/>
+      <c r="L41" s="129"/>
+      <c r="M41" s="129"/>
+      <c r="N41" s="130"/>
+      <c r="O41" s="159"/>
       <c r="P41" s="5"/>
     </row>
     <row r="42" spans="1:16" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A42" s="48"/>
-      <c r="B42" s="117"/>
-      <c r="C42" s="145"/>
-      <c r="D42" s="146"/>
-      <c r="E42" s="145"/>
-      <c r="F42" s="146"/>
-      <c r="G42" s="145"/>
-      <c r="H42" s="146"/>
-      <c r="I42" s="148"/>
-      <c r="J42" s="148"/>
-      <c r="K42" s="65"/>
-      <c r="L42" s="66"/>
-      <c r="M42" s="66"/>
-      <c r="N42" s="67"/>
-      <c r="O42" s="141">
+      <c r="A42" s="80"/>
+      <c r="B42" s="71"/>
+      <c r="C42" s="162"/>
+      <c r="D42" s="163"/>
+      <c r="E42" s="162"/>
+      <c r="F42" s="163"/>
+      <c r="G42" s="162"/>
+      <c r="H42" s="163"/>
+      <c r="I42" s="165"/>
+      <c r="J42" s="165"/>
+      <c r="K42" s="128"/>
+      <c r="L42" s="129"/>
+      <c r="M42" s="129"/>
+      <c r="N42" s="130"/>
+      <c r="O42" s="158">
         <v>3</v>
       </c>
       <c r="P42" s="5"/>
     </row>
     <row r="43" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A43" s="49"/>
-      <c r="B43" s="157"/>
-      <c r="C43" s="150" t="s">
+      <c r="A43" s="81"/>
+      <c r="B43" s="151"/>
+      <c r="C43" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="151"/>
-      <c r="E43" s="54" t="s">
+      <c r="D43" s="143"/>
+      <c r="E43" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="F43" s="56"/>
-      <c r="G43" s="54" t="s">
+      <c r="F43" s="119"/>
+      <c r="G43" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="56"/>
+      <c r="H43" s="119"/>
       <c r="I43" s="22" t="s">
         <v>13</v>
       </c>
       <c r="J43" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="K43" s="68"/>
-      <c r="L43" s="69"/>
-      <c r="M43" s="69"/>
-      <c r="N43" s="70"/>
-      <c r="O43" s="149"/>
+      <c r="K43" s="106"/>
+      <c r="L43" s="131"/>
+      <c r="M43" s="131"/>
+      <c r="N43" s="107"/>
+      <c r="O43" s="166"/>
       <c r="P43" s="5"/>
     </row>
     <row r="44" spans="1:16" s="6" customFormat="1" ht="15" customHeight="1">
@@ -8925,102 +8925,79 @@
       <c r="K44" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L44" s="43" t="s">
+      <c r="L44" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="M44" s="43"/>
-      <c r="N44" s="43"/>
-      <c r="O44" s="43"/>
+      <c r="M44" s="109"/>
+      <c r="N44" s="109"/>
+      <c r="O44" s="109"/>
       <c r="P44" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="173">
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:E20"/>
-    <mergeCell ref="F19:G20"/>
-    <mergeCell ref="H19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:O20"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:E25"/>
-    <mergeCell ref="F24:G25"/>
-    <mergeCell ref="H24:K25"/>
-    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="K40:N43"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:F42"/>
+    <mergeCell ref="G41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:E33"/>
+    <mergeCell ref="F32:G33"/>
+    <mergeCell ref="H32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N32:O33"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:E38"/>
+    <mergeCell ref="F37:G38"/>
+    <mergeCell ref="H37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:O38"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="N27:O27"/>
     <mergeCell ref="D28:E28"/>
@@ -9045,69 +9022,92 @@
     <mergeCell ref="N21:O21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:G22"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:E38"/>
-    <mergeCell ref="F37:G38"/>
-    <mergeCell ref="H37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:O38"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="B38:B43"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:E33"/>
-    <mergeCell ref="F32:G33"/>
-    <mergeCell ref="H32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="N32:O33"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="K40:N43"/>
-    <mergeCell ref="O40:O41"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="E41:F42"/>
-    <mergeCell ref="G41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:E25"/>
+    <mergeCell ref="F24:G25"/>
+    <mergeCell ref="H24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:E20"/>
+    <mergeCell ref="F19:G20"/>
+    <mergeCell ref="H19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:O20"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="N3:O3"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -10239,859 +10239,859 @@
       <c r="C2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="161" t="s">
+      <c r="D2" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="162"/>
-      <c r="F2" s="161" t="s">
+      <c r="E2" s="140"/>
+      <c r="F2" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="162"/>
-      <c r="H2" s="150" t="s">
+      <c r="G2" s="140"/>
+      <c r="H2" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="151"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="143"/>
       <c r="L2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="M2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="132" t="s">
+      <c r="N2" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="133"/>
+      <c r="O2" s="48"/>
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:16" ht="22.5" customHeight="1">
       <c r="A3" s="12"/>
       <c r="B3" s="8"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="164"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="165"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="145"/>
       <c r="L3" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M3" s="13"/>
-      <c r="N3" s="169"/>
-      <c r="O3" s="170"/>
+      <c r="N3" s="168"/>
+      <c r="O3" s="169"/>
     </row>
     <row r="4" spans="1:16" ht="22.5" customHeight="1">
       <c r="A4" s="12"/>
       <c r="B4" s="8"/>
       <c r="C4" s="15"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="80">
+      <c r="D4" s="54"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="54">
         <v>47</v>
       </c>
-      <c r="G4" s="81"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="81"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="55"/>
       <c r="L4" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M4" s="15">
         <v>11</v>
       </c>
-      <c r="N4" s="159" t="s">
-        <v>140</v>
-      </c>
-      <c r="O4" s="160"/>
+      <c r="N4" s="147" t="s">
+        <v>139</v>
+      </c>
+      <c r="O4" s="148"/>
     </row>
     <row r="5" spans="1:16" ht="22.5" customHeight="1">
       <c r="A5" s="12"/>
       <c r="B5" s="8"/>
       <c r="C5" s="15"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="81"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="55"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
-      <c r="N5" s="159" t="s">
-        <v>141</v>
-      </c>
-      <c r="O5" s="160"/>
+      <c r="N5" s="147" t="s">
+        <v>140</v>
+      </c>
+      <c r="O5" s="148"/>
     </row>
     <row r="6" spans="1:16" ht="22.5" customHeight="1">
       <c r="A6" s="12"/>
       <c r="B6" s="8"/>
       <c r="C6" s="15"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="80">
+      <c r="D6" s="54"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="54">
         <v>48</v>
       </c>
-      <c r="G6" s="81"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="81"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="55"/>
       <c r="L6" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M6" s="15">
         <v>3</v>
       </c>
-      <c r="N6" s="159" t="s">
-        <v>142</v>
-      </c>
-      <c r="O6" s="160"/>
+      <c r="N6" s="147" t="s">
+        <v>141</v>
+      </c>
+      <c r="O6" s="148"/>
     </row>
     <row r="7" spans="1:16" ht="22.5" customHeight="1">
       <c r="A7" s="12"/>
       <c r="B7" s="8"/>
       <c r="C7" s="15"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="81"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="55"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
-      <c r="N7" s="159"/>
-      <c r="O7" s="160"/>
+      <c r="N7" s="147"/>
+      <c r="O7" s="148"/>
     </row>
     <row r="8" spans="1:16" ht="22.5" customHeight="1">
       <c r="A8" s="12"/>
       <c r="B8" s="8"/>
       <c r="C8" s="15"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="122"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="66"/>
       <c r="L8" s="17" t="s">
         <v>32</v>
       </c>
       <c r="M8" s="15"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="62"/>
+      <c r="N8" s="123"/>
+      <c r="O8" s="125"/>
     </row>
     <row r="9" spans="1:16" ht="22.5" customHeight="1">
       <c r="A9" s="12"/>
       <c r="B9" s="8"/>
       <c r="C9" s="15"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="83">
+      <c r="D9" s="65"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="60">
         <v>49</v>
       </c>
-      <c r="G9" s="84"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="123"/>
-      <c r="K9" s="122"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="66"/>
       <c r="L9" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M9" s="15">
         <v>2</v>
       </c>
-      <c r="N9" s="60" t="s">
-        <v>144</v>
-      </c>
-      <c r="O9" s="62"/>
+      <c r="N9" s="123" t="s">
+        <v>143</v>
+      </c>
+      <c r="O9" s="125"/>
     </row>
     <row r="10" spans="1:16" ht="22.5" customHeight="1">
       <c r="A10" s="12"/>
       <c r="B10" s="8"/>
       <c r="C10" s="15"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="80">
+      <c r="D10" s="54"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="54">
         <v>50</v>
       </c>
-      <c r="G10" s="81"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="81"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="55"/>
       <c r="L10" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M10" s="15">
         <v>2</v>
       </c>
-      <c r="N10" s="159" t="s">
-        <v>146</v>
-      </c>
-      <c r="O10" s="160"/>
+      <c r="N10" s="147" t="s">
+        <v>145</v>
+      </c>
+      <c r="O10" s="148"/>
     </row>
     <row r="11" spans="1:16" ht="22.5" customHeight="1">
       <c r="A11" s="12"/>
       <c r="B11" s="8"/>
       <c r="C11" s="15"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="80">
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="54">
         <v>51</v>
       </c>
-      <c r="G11" s="81"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="81"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="55"/>
       <c r="L11" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M11" s="15">
         <v>1</v>
       </c>
-      <c r="N11" s="159" t="s">
-        <v>148</v>
-      </c>
-      <c r="O11" s="160"/>
+      <c r="N11" s="147" t="s">
+        <v>147</v>
+      </c>
+      <c r="O11" s="148"/>
     </row>
     <row r="12" spans="1:16" ht="22.5" customHeight="1">
       <c r="A12" s="12"/>
       <c r="B12" s="8"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="80">
+      <c r="D12" s="54"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="54">
         <v>52</v>
       </c>
-      <c r="G12" s="81"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="81"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="55"/>
       <c r="L12" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M12" s="15">
         <v>1</v>
       </c>
-      <c r="N12" s="159" t="s">
-        <v>150</v>
-      </c>
-      <c r="O12" s="160"/>
+      <c r="N12" s="147" t="s">
+        <v>149</v>
+      </c>
+      <c r="O12" s="148"/>
     </row>
     <row r="13" spans="1:16" ht="22.5" customHeight="1">
       <c r="A13" s="12"/>
       <c r="B13" s="8"/>
       <c r="C13" s="15"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="80">
+      <c r="D13" s="54"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="54">
         <v>53</v>
       </c>
-      <c r="G13" s="81"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="81"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="55"/>
       <c r="L13" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M13" s="15">
         <v>1</v>
       </c>
-      <c r="N13" s="159" t="s">
-        <v>151</v>
-      </c>
-      <c r="O13" s="160"/>
+      <c r="N13" s="147" t="s">
+        <v>150</v>
+      </c>
+      <c r="O13" s="148"/>
     </row>
     <row r="14" spans="1:16" ht="22.5" customHeight="1">
       <c r="A14" s="12"/>
       <c r="B14" s="8"/>
       <c r="C14" s="15"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="80">
+      <c r="D14" s="54"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="54">
         <v>54</v>
       </c>
-      <c r="G14" s="81"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="81"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="55"/>
       <c r="L14" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M14" s="15">
         <v>2</v>
       </c>
-      <c r="N14" s="168" t="s">
-        <v>153</v>
-      </c>
-      <c r="O14" s="160"/>
+      <c r="N14" s="170" t="s">
+        <v>152</v>
+      </c>
+      <c r="O14" s="148"/>
     </row>
     <row r="15" spans="1:16" ht="22.5" customHeight="1">
       <c r="A15" s="12"/>
       <c r="B15" s="8"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="80">
+      <c r="D15" s="54"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="54">
         <v>55</v>
       </c>
-      <c r="G15" s="81"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="81"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="55"/>
       <c r="L15" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M15" s="15">
         <v>2</v>
       </c>
-      <c r="N15" s="159" t="s">
-        <v>177</v>
-      </c>
-      <c r="O15" s="160"/>
+      <c r="N15" s="147" t="s">
+        <v>176</v>
+      </c>
+      <c r="O15" s="148"/>
     </row>
     <row r="16" spans="1:16" ht="22.5" customHeight="1">
       <c r="A16" s="12"/>
       <c r="B16" s="8"/>
       <c r="C16" s="15"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="80">
+      <c r="D16" s="54"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="54">
         <v>57</v>
       </c>
-      <c r="G16" s="84"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="81"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="55"/>
       <c r="L16" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M16" s="15">
         <v>2</v>
       </c>
-      <c r="N16" s="159" t="s">
-        <v>156</v>
-      </c>
-      <c r="O16" s="160"/>
+      <c r="N16" s="147" t="s">
+        <v>155</v>
+      </c>
+      <c r="O16" s="148"/>
     </row>
     <row r="17" spans="1:15" ht="22.5" customHeight="1">
       <c r="A17" s="12"/>
       <c r="B17" s="8"/>
       <c r="C17" s="15"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="83">
+      <c r="D17" s="54"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="60">
         <v>58</v>
       </c>
-      <c r="G17" s="84"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="81"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="55"/>
       <c r="L17" s="41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M17" s="15">
         <v>3</v>
       </c>
-      <c r="N17" s="168" t="s">
-        <v>158</v>
-      </c>
-      <c r="O17" s="160"/>
+      <c r="N17" s="170" t="s">
+        <v>157</v>
+      </c>
+      <c r="O17" s="148"/>
     </row>
     <row r="18" spans="1:15" ht="22.5" customHeight="1">
       <c r="A18" s="12"/>
       <c r="B18" s="8"/>
       <c r="C18" s="15"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="80">
+      <c r="D18" s="54"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="54">
         <v>59</v>
       </c>
-      <c r="G18" s="81"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="81"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="55"/>
       <c r="L18" s="41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M18" s="15">
         <v>5</v>
       </c>
-      <c r="N18" s="168" t="s">
-        <v>159</v>
-      </c>
-      <c r="O18" s="160"/>
+      <c r="N18" s="170" t="s">
+        <v>158</v>
+      </c>
+      <c r="O18" s="148"/>
     </row>
     <row r="19" spans="1:15" ht="6.75" customHeight="1" thickBot="1">
       <c r="A19" s="12"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="156"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="81"/>
+      <c r="C19" s="149"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="55"/>
       <c r="L19" s="167"/>
-      <c r="M19" s="156"/>
-      <c r="N19" s="159"/>
-      <c r="O19" s="160"/>
+      <c r="M19" s="149"/>
+      <c r="N19" s="147"/>
+      <c r="O19" s="148"/>
     </row>
     <row r="20" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="116"/>
-      <c r="C20" s="156"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="156"/>
-      <c r="M20" s="156"/>
-      <c r="N20" s="159"/>
-      <c r="O20" s="160"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="149"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="149"/>
+      <c r="M20" s="149"/>
+      <c r="N20" s="147"/>
+      <c r="O20" s="148"/>
     </row>
     <row r="21" spans="1:15" ht="22.5" customHeight="1">
-      <c r="A21" s="48"/>
-      <c r="B21" s="117"/>
+      <c r="A21" s="80"/>
+      <c r="B21" s="71"/>
       <c r="C21" s="15"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="81"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="55"/>
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
-      <c r="N21" s="159"/>
-      <c r="O21" s="160"/>
+      <c r="N21" s="147"/>
+      <c r="O21" s="148"/>
     </row>
     <row r="22" spans="1:15" ht="22.5" customHeight="1">
-      <c r="A22" s="48"/>
-      <c r="B22" s="117"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="71"/>
       <c r="C22" s="15"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="81"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="55"/>
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
-      <c r="N22" s="159"/>
-      <c r="O22" s="160"/>
+      <c r="N22" s="147"/>
+      <c r="O22" s="148"/>
     </row>
     <row r="23" spans="1:15" ht="22.5" customHeight="1">
-      <c r="A23" s="48"/>
-      <c r="B23" s="117"/>
+      <c r="A23" s="80"/>
+      <c r="B23" s="71"/>
       <c r="C23" s="15"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="81"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="55"/>
       <c r="L23" s="19"/>
       <c r="M23" s="15"/>
-      <c r="N23" s="80"/>
-      <c r="O23" s="81"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="55"/>
     </row>
     <row r="24" spans="1:15" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A24" s="49"/>
-      <c r="B24" s="157"/>
-      <c r="C24" s="156"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="81"/>
+      <c r="A24" s="81"/>
+      <c r="B24" s="151"/>
+      <c r="C24" s="149"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="55"/>
       <c r="L24" s="167"/>
-      <c r="M24" s="156"/>
-      <c r="N24" s="80"/>
-      <c r="O24" s="81"/>
+      <c r="M24" s="149"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="55"/>
     </row>
     <row r="25" spans="1:15" ht="4.5" customHeight="1">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="116"/>
-      <c r="C25" s="156"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="81"/>
-      <c r="L25" s="156"/>
-      <c r="M25" s="156"/>
-      <c r="N25" s="80"/>
-      <c r="O25" s="81"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="149"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="55"/>
     </row>
     <row r="26" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A26" s="48"/>
-      <c r="B26" s="117"/>
+      <c r="A26" s="80"/>
+      <c r="B26" s="71"/>
       <c r="C26" s="15"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="81"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="55"/>
       <c r="L26" s="16"/>
       <c r="M26" s="15"/>
-      <c r="N26" s="80"/>
-      <c r="O26" s="81"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="55"/>
     </row>
     <row r="27" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A27" s="48"/>
-      <c r="B27" s="117"/>
+      <c r="A27" s="80"/>
+      <c r="B27" s="71"/>
       <c r="C27" s="15"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="81"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="55"/>
       <c r="L27" s="16"/>
       <c r="M27" s="15"/>
-      <c r="N27" s="80"/>
-      <c r="O27" s="81"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="55"/>
     </row>
     <row r="28" spans="1:15" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A28" s="49"/>
-      <c r="B28" s="157"/>
+      <c r="A28" s="81"/>
+      <c r="B28" s="151"/>
       <c r="C28" s="15"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="81"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="55"/>
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
-      <c r="N28" s="80"/>
-      <c r="O28" s="81"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="55"/>
     </row>
     <row r="29" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A29" s="152" t="s">
+      <c r="A29" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="153"/>
+      <c r="B29" s="155"/>
       <c r="C29" s="15"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="81"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="55"/>
       <c r="L29" s="15"/>
       <c r="M29" s="15"/>
-      <c r="N29" s="80"/>
-      <c r="O29" s="81"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="55"/>
     </row>
     <row r="30" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A30" s="72"/>
-      <c r="B30" s="154"/>
+      <c r="A30" s="133"/>
+      <c r="B30" s="156"/>
       <c r="C30" s="15"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="81"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="81"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="55"/>
       <c r="L30" s="15"/>
       <c r="M30" s="15"/>
-      <c r="N30" s="80"/>
-      <c r="O30" s="81"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="55"/>
     </row>
     <row r="31" spans="1:15" ht="23.25" customHeight="1">
-      <c r="A31" s="72"/>
-      <c r="B31" s="154"/>
+      <c r="A31" s="133"/>
+      <c r="B31" s="156"/>
       <c r="C31" s="15"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="81"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="82"/>
-      <c r="K31" s="81"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="55"/>
       <c r="L31" s="15"/>
       <c r="M31" s="15"/>
-      <c r="N31" s="80"/>
-      <c r="O31" s="81"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="55"/>
     </row>
     <row r="32" spans="1:15" ht="4.5" customHeight="1" thickBot="1">
-      <c r="A32" s="73"/>
-      <c r="B32" s="155"/>
-      <c r="C32" s="156"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="81"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="82"/>
-      <c r="J32" s="82"/>
-      <c r="K32" s="81"/>
-      <c r="L32" s="156"/>
-      <c r="M32" s="156"/>
-      <c r="N32" s="80"/>
-      <c r="O32" s="81"/>
+      <c r="A32" s="134"/>
+      <c r="B32" s="157"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="55"/>
     </row>
     <row r="33" spans="1:16" ht="18.75" customHeight="1">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="117"/>
-      <c r="C33" s="156"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="82"/>
-      <c r="J33" s="82"/>
-      <c r="K33" s="81"/>
-      <c r="L33" s="156"/>
-      <c r="M33" s="156"/>
-      <c r="N33" s="80"/>
-      <c r="O33" s="81"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="55"/>
     </row>
     <row r="34" spans="1:16" ht="23.25" customHeight="1">
-      <c r="A34" s="48"/>
-      <c r="B34" s="117"/>
+      <c r="A34" s="80"/>
+      <c r="B34" s="71"/>
       <c r="C34" s="15"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="80"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="82"/>
-      <c r="K34" s="81"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="55"/>
       <c r="L34" s="15"/>
       <c r="M34" s="15"/>
-      <c r="N34" s="80"/>
-      <c r="O34" s="81"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="55"/>
     </row>
     <row r="35" spans="1:16" ht="23.25" customHeight="1">
-      <c r="A35" s="48"/>
-      <c r="B35" s="117"/>
+      <c r="A35" s="80"/>
+      <c r="B35" s="71"/>
       <c r="C35" s="15"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="80"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="81"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="55"/>
       <c r="L35" s="15"/>
       <c r="M35" s="15"/>
-      <c r="N35" s="80"/>
-      <c r="O35" s="81"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="55"/>
     </row>
     <row r="36" spans="1:16" ht="23.25" customHeight="1">
-      <c r="A36" s="48"/>
-      <c r="B36" s="117"/>
+      <c r="A36" s="80"/>
+      <c r="B36" s="71"/>
       <c r="C36" s="15"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="80"/>
-      <c r="I36" s="82"/>
-      <c r="J36" s="82"/>
-      <c r="K36" s="81"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="55"/>
       <c r="L36" s="16"/>
       <c r="M36" s="15"/>
-      <c r="N36" s="113"/>
-      <c r="O36" s="81"/>
+      <c r="N36" s="74"/>
+      <c r="O36" s="55"/>
     </row>
     <row r="37" spans="1:16" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A37" s="49"/>
-      <c r="B37" s="157"/>
-      <c r="C37" s="156"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="80"/>
-      <c r="I37" s="82"/>
-      <c r="J37" s="82"/>
-      <c r="K37" s="81"/>
-      <c r="L37" s="156"/>
-      <c r="M37" s="156"/>
-      <c r="N37" s="80"/>
-      <c r="O37" s="81"/>
+      <c r="A37" s="81"/>
+      <c r="B37" s="151"/>
+      <c r="C37" s="149"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="55"/>
     </row>
     <row r="38" spans="1:16" ht="6.75" customHeight="1">
-      <c r="A38" s="47" t="s">
+      <c r="A38" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="116"/>
-      <c r="C38" s="156"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="80"/>
-      <c r="I38" s="82"/>
-      <c r="J38" s="82"/>
-      <c r="K38" s="81"/>
-      <c r="L38" s="156"/>
-      <c r="M38" s="156"/>
-      <c r="N38" s="80"/>
-      <c r="O38" s="81"/>
+      <c r="B38" s="70"/>
+      <c r="C38" s="149"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="55"/>
     </row>
     <row r="39" spans="1:16" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A39" s="48"/>
-      <c r="B39" s="117"/>
+      <c r="A39" s="80"/>
+      <c r="B39" s="71"/>
       <c r="C39" s="20"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="86"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="86"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="90"/>
-      <c r="J39" s="90"/>
-      <c r="K39" s="86"/>
+      <c r="D39" s="87"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="87"/>
+      <c r="G39" s="88"/>
+      <c r="H39" s="87"/>
+      <c r="I39" s="92"/>
+      <c r="J39" s="92"/>
+      <c r="K39" s="88"/>
       <c r="L39" s="20"/>
       <c r="M39" s="20"/>
-      <c r="N39" s="85"/>
-      <c r="O39" s="86"/>
+      <c r="N39" s="87"/>
+      <c r="O39" s="88"/>
     </row>
     <row r="40" spans="1:16" ht="15" customHeight="1">
-      <c r="A40" s="48"/>
-      <c r="B40" s="117"/>
-      <c r="C40" s="139"/>
-      <c r="D40" s="140"/>
-      <c r="E40" s="139"/>
-      <c r="F40" s="140"/>
-      <c r="G40" s="139"/>
-      <c r="H40" s="140"/>
+      <c r="A40" s="80"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="152"/>
+      <c r="D40" s="153"/>
+      <c r="E40" s="152"/>
+      <c r="F40" s="153"/>
+      <c r="G40" s="152"/>
+      <c r="H40" s="153"/>
       <c r="I40" s="21"/>
       <c r="J40" s="21"/>
-      <c r="K40" s="96" t="s">
-        <v>167</v>
-      </c>
-      <c r="L40" s="66"/>
-      <c r="M40" s="66"/>
-      <c r="N40" s="67"/>
-      <c r="O40" s="141" t="s">
+      <c r="K40" s="100" t="s">
+        <v>166</v>
+      </c>
+      <c r="L40" s="129"/>
+      <c r="M40" s="129"/>
+      <c r="N40" s="130"/>
+      <c r="O40" s="158" t="s">
         <v>11</v>
       </c>
       <c r="P40" s="5"/>
     </row>
     <row r="41" spans="1:16" ht="4.5" customHeight="1">
-      <c r="A41" s="48"/>
-      <c r="B41" s="117"/>
-      <c r="C41" s="143"/>
-      <c r="D41" s="144"/>
-      <c r="E41" s="143"/>
-      <c r="F41" s="144"/>
-      <c r="G41" s="143"/>
-      <c r="H41" s="144"/>
-      <c r="I41" s="147"/>
-      <c r="J41" s="147"/>
-      <c r="K41" s="65"/>
-      <c r="L41" s="66"/>
-      <c r="M41" s="66"/>
-      <c r="N41" s="67"/>
-      <c r="O41" s="142"/>
+      <c r="A41" s="80"/>
+      <c r="B41" s="71"/>
+      <c r="C41" s="160"/>
+      <c r="D41" s="161"/>
+      <c r="E41" s="160"/>
+      <c r="F41" s="161"/>
+      <c r="G41" s="160"/>
+      <c r="H41" s="161"/>
+      <c r="I41" s="164"/>
+      <c r="J41" s="164"/>
+      <c r="K41" s="128"/>
+      <c r="L41" s="129"/>
+      <c r="M41" s="129"/>
+      <c r="N41" s="130"/>
+      <c r="O41" s="159"/>
       <c r="P41" s="5"/>
     </row>
     <row r="42" spans="1:16" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A42" s="48"/>
-      <c r="B42" s="117"/>
-      <c r="C42" s="145"/>
-      <c r="D42" s="146"/>
-      <c r="E42" s="145"/>
-      <c r="F42" s="146"/>
-      <c r="G42" s="145"/>
-      <c r="H42" s="146"/>
-      <c r="I42" s="148"/>
-      <c r="J42" s="148"/>
-      <c r="K42" s="65"/>
-      <c r="L42" s="66"/>
-      <c r="M42" s="66"/>
-      <c r="N42" s="67"/>
-      <c r="O42" s="141">
+      <c r="A42" s="80"/>
+      <c r="B42" s="71"/>
+      <c r="C42" s="162"/>
+      <c r="D42" s="163"/>
+      <c r="E42" s="162"/>
+      <c r="F42" s="163"/>
+      <c r="G42" s="162"/>
+      <c r="H42" s="163"/>
+      <c r="I42" s="165"/>
+      <c r="J42" s="165"/>
+      <c r="K42" s="128"/>
+      <c r="L42" s="129"/>
+      <c r="M42" s="129"/>
+      <c r="N42" s="130"/>
+      <c r="O42" s="158">
         <v>4</v>
       </c>
       <c r="P42" s="5"/>
     </row>
     <row r="43" spans="1:16" ht="15" customHeight="1" thickBot="1">
-      <c r="A43" s="49"/>
-      <c r="B43" s="157"/>
-      <c r="C43" s="150" t="s">
+      <c r="A43" s="81"/>
+      <c r="B43" s="151"/>
+      <c r="C43" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="151"/>
-      <c r="E43" s="54" t="s">
+      <c r="D43" s="143"/>
+      <c r="E43" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="F43" s="56"/>
-      <c r="G43" s="54" t="s">
+      <c r="F43" s="119"/>
+      <c r="G43" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="56"/>
+      <c r="H43" s="119"/>
       <c r="I43" s="22" t="s">
         <v>13</v>
       </c>
       <c r="J43" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="K43" s="68"/>
-      <c r="L43" s="69"/>
-      <c r="M43" s="69"/>
-      <c r="N43" s="70"/>
-      <c r="O43" s="149"/>
+      <c r="K43" s="106"/>
+      <c r="L43" s="131"/>
+      <c r="M43" s="131"/>
+      <c r="N43" s="107"/>
+      <c r="O43" s="166"/>
       <c r="P43" s="5"/>
     </row>
     <row r="44" spans="1:16" s="6" customFormat="1" ht="15" customHeight="1">
@@ -11108,102 +11108,79 @@
       <c r="K44" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="L44" s="43" t="s">
+      <c r="L44" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="M44" s="43"/>
-      <c r="N44" s="43"/>
-      <c r="O44" s="43"/>
+      <c r="M44" s="109"/>
+      <c r="N44" s="109"/>
+      <c r="O44" s="109"/>
       <c r="P44" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="173">
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:E20"/>
-    <mergeCell ref="F19:G20"/>
-    <mergeCell ref="H19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="N19:O20"/>
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:K23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:E25"/>
-    <mergeCell ref="F24:G25"/>
-    <mergeCell ref="H24:K25"/>
-    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="K40:N43"/>
+    <mergeCell ref="O40:O41"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="E41:F42"/>
+    <mergeCell ref="G41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:E33"/>
+    <mergeCell ref="F32:G33"/>
+    <mergeCell ref="H32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="N32:O33"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:E38"/>
+    <mergeCell ref="F37:G38"/>
+    <mergeCell ref="H37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="N37:O38"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="D39:E39"/>
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="N27:O27"/>
     <mergeCell ref="D28:E28"/>
@@ -11228,69 +11205,92 @@
     <mergeCell ref="N21:O21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:K34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:K35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:K36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:E38"/>
-    <mergeCell ref="F37:G38"/>
-    <mergeCell ref="H37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="N37:O38"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="B38:B43"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:K29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:K30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:E33"/>
-    <mergeCell ref="F32:G33"/>
-    <mergeCell ref="H32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="N32:O33"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="L44:O44"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="K40:N43"/>
-    <mergeCell ref="O40:O41"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="E41:F42"/>
-    <mergeCell ref="G41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:E25"/>
+    <mergeCell ref="F24:G25"/>
+    <mergeCell ref="H24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:E20"/>
+    <mergeCell ref="F19:G20"/>
+    <mergeCell ref="H19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="N19:O20"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="N3:O3"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
